--- a/canada_covid.xlsx
+++ b/canada_covid.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pieter\Desktop\covid data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pieter\Desktop\Work\covid data\COVID19 Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -526,11 +526,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28:Y28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1479,6 +1479,83 @@
         <v>0</v>
       </c>
     </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D28">
+        <v>271</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>146</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>8</v>
+      </c>
+      <c r="I28">
+        <v>12</v>
+      </c>
+      <c r="J28">
+        <v>17</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>258</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>121</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>2</v>
+      </c>
+      <c r="R28">
+        <v>7</v>
+      </c>
+      <c r="S28">
+        <v>4</v>
+      </c>
+      <c r="T28">
+        <v>5</v>
+      </c>
+      <c r="U28">
+        <v>9</v>
+      </c>
+      <c r="V28">
+        <v>2</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>10</v>
+      </c>
+      <c r="Y28">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1486,10 +1563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C103" sqref="C103:C105"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="A194" sqref="A194:C215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5359,6 +5436,446 @@
         <v>0</v>
       </c>
     </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>48</v>
+      </c>
+      <c r="B194" t="s">
+        <v>40</v>
+      </c>
+      <c r="C194" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D194" t="s">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>41</v>
+      </c>
+      <c r="F194">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>48</v>
+      </c>
+      <c r="B195" t="s">
+        <v>40</v>
+      </c>
+      <c r="C195" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1</v>
+      </c>
+      <c r="E195" t="s">
+        <v>42</v>
+      </c>
+      <c r="F195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>48</v>
+      </c>
+      <c r="B196" t="s">
+        <v>40</v>
+      </c>
+      <c r="C196" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D196" t="s">
+        <v>2</v>
+      </c>
+      <c r="E196" t="s">
+        <v>41</v>
+      </c>
+      <c r="F196">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A197" t="s">
+        <v>48</v>
+      </c>
+      <c r="B197" t="s">
+        <v>40</v>
+      </c>
+      <c r="C197" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D197" t="s">
+        <v>2</v>
+      </c>
+      <c r="E197" t="s">
+        <v>42</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A198" t="s">
+        <v>48</v>
+      </c>
+      <c r="B198" t="s">
+        <v>40</v>
+      </c>
+      <c r="C198" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D198" t="s">
+        <v>3</v>
+      </c>
+      <c r="E198" t="s">
+        <v>41</v>
+      </c>
+      <c r="F198">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>48</v>
+      </c>
+      <c r="B199" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D199" t="s">
+        <v>3</v>
+      </c>
+      <c r="E199" t="s">
+        <v>42</v>
+      </c>
+      <c r="F199">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A200" t="s">
+        <v>48</v>
+      </c>
+      <c r="B200" t="s">
+        <v>40</v>
+      </c>
+      <c r="C200" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D200" t="s">
+        <v>4</v>
+      </c>
+      <c r="E200" t="s">
+        <v>41</v>
+      </c>
+      <c r="F200">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A201" t="s">
+        <v>48</v>
+      </c>
+      <c r="B201" t="s">
+        <v>40</v>
+      </c>
+      <c r="C201" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D201" t="s">
+        <v>4</v>
+      </c>
+      <c r="E201" t="s">
+        <v>42</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A202" t="s">
+        <v>48</v>
+      </c>
+      <c r="B202" t="s">
+        <v>40</v>
+      </c>
+      <c r="C202" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D202" t="s">
+        <v>5</v>
+      </c>
+      <c r="E202" t="s">
+        <v>41</v>
+      </c>
+      <c r="F202">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A203" t="s">
+        <v>48</v>
+      </c>
+      <c r="B203" t="s">
+        <v>40</v>
+      </c>
+      <c r="C203" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D203" t="s">
+        <v>5</v>
+      </c>
+      <c r="E203" t="s">
+        <v>42</v>
+      </c>
+      <c r="F203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A204" t="s">
+        <v>48</v>
+      </c>
+      <c r="B204" t="s">
+        <v>40</v>
+      </c>
+      <c r="C204" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D204" t="s">
+        <v>6</v>
+      </c>
+      <c r="E204" t="s">
+        <v>41</v>
+      </c>
+      <c r="F204">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A205" t="s">
+        <v>48</v>
+      </c>
+      <c r="B205" t="s">
+        <v>40</v>
+      </c>
+      <c r="C205" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D205" t="s">
+        <v>6</v>
+      </c>
+      <c r="E205" t="s">
+        <v>42</v>
+      </c>
+      <c r="F205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A206" t="s">
+        <v>48</v>
+      </c>
+      <c r="B206" t="s">
+        <v>40</v>
+      </c>
+      <c r="C206" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D206" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" t="s">
+        <v>41</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A207" t="s">
+        <v>48</v>
+      </c>
+      <c r="B207" t="s">
+        <v>40</v>
+      </c>
+      <c r="C207" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D207" t="s">
+        <v>7</v>
+      </c>
+      <c r="E207" t="s">
+        <v>42</v>
+      </c>
+      <c r="F207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A208" t="s">
+        <v>48</v>
+      </c>
+      <c r="B208" t="s">
+        <v>40</v>
+      </c>
+      <c r="C208" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D208" t="s">
+        <v>8</v>
+      </c>
+      <c r="E208" t="s">
+        <v>41</v>
+      </c>
+      <c r="F208">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A209" t="s">
+        <v>48</v>
+      </c>
+      <c r="B209" t="s">
+        <v>40</v>
+      </c>
+      <c r="C209" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D209" t="s">
+        <v>8</v>
+      </c>
+      <c r="E209" t="s">
+        <v>42</v>
+      </c>
+      <c r="F209">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A210" t="s">
+        <v>48</v>
+      </c>
+      <c r="B210" t="s">
+        <v>40</v>
+      </c>
+      <c r="C210" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>41</v>
+      </c>
+      <c r="F210">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A211" t="s">
+        <v>48</v>
+      </c>
+      <c r="B211" t="s">
+        <v>40</v>
+      </c>
+      <c r="C211" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" t="s">
+        <v>42</v>
+      </c>
+      <c r="F211">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
+        <v>48</v>
+      </c>
+      <c r="B212" t="s">
+        <v>40</v>
+      </c>
+      <c r="C212" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D212" t="s">
+        <v>10</v>
+      </c>
+      <c r="E212" t="s">
+        <v>41</v>
+      </c>
+      <c r="F212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
+        <v>48</v>
+      </c>
+      <c r="B213" t="s">
+        <v>40</v>
+      </c>
+      <c r="C213" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D213" t="s">
+        <v>10</v>
+      </c>
+      <c r="E213" t="s">
+        <v>42</v>
+      </c>
+      <c r="F213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
+        <v>48</v>
+      </c>
+      <c r="B214" t="s">
+        <v>40</v>
+      </c>
+      <c r="C214" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D214" t="s">
+        <v>43</v>
+      </c>
+      <c r="E214" t="s">
+        <v>41</v>
+      </c>
+      <c r="F214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
+        <v>48</v>
+      </c>
+      <c r="B215" t="s">
+        <v>40</v>
+      </c>
+      <c r="C215" s="1">
+        <v>43909.770833333336</v>
+      </c>
+      <c r="D215" t="s">
+        <v>43</v>
+      </c>
+      <c r="E215" t="s">
+        <v>42</v>
+      </c>
+      <c r="F215">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/canada_covid.xlsx
+++ b/canada_covid.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9108" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9108"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="2" r:id="rId1"/>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>SK</t>
-  </si>
-  <si>
-    <t>MN</t>
   </si>
   <si>
     <t>ON</t>
@@ -89,12 +86,6 @@
   </si>
   <si>
     <t>AB_conf</t>
-  </si>
-  <si>
-    <t>MN_conf</t>
-  </si>
-  <si>
-    <t>MN_prob</t>
   </si>
   <si>
     <t>ON_conf</t>
@@ -173,6 +164,15 @@
   </si>
   <si>
     <t>live</t>
+  </si>
+  <si>
+    <t>MB</t>
+  </si>
+  <si>
+    <t>MB_conf</t>
+  </si>
+  <si>
+    <t>MB_prob</t>
   </si>
 </sst>
 </file>
@@ -493,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -501,22 +501,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -528,9 +528,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y28"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28:Y28"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -542,87 +542,87 @@
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>19</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" t="s">
         <v>20</v>
       </c>
-      <c r="G1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>21</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>22</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>23</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="Q1" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="R1" t="s">
         <v>26</v>
       </c>
-      <c r="P1" t="s">
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="T1" t="s">
         <v>28</v>
       </c>
-      <c r="R1" t="s">
+      <c r="U1" t="s">
         <v>29</v>
       </c>
-      <c r="S1" t="s">
+      <c r="V1" t="s">
         <v>30</v>
       </c>
-      <c r="T1" t="s">
+      <c r="W1" t="s">
         <v>31</v>
       </c>
-      <c r="U1" t="s">
+      <c r="X1" t="s">
         <v>32</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>33</v>
-      </c>
-      <c r="W1" t="s">
-        <v>34</v>
-      </c>
-      <c r="X1" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>43861.375</v>
@@ -636,10 +636,10 @@
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>43869.375</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>43875.375</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>43877.375</v>
@@ -687,10 +687,10 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>43881.375</v>
@@ -704,10 +704,10 @@
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>43882.375</v>
@@ -721,10 +721,10 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>43885.375</v>
@@ -738,10 +738,10 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>43886.375</v>
@@ -755,10 +755,10 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>43887.375</v>
@@ -772,10 +772,10 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>43888.375</v>
@@ -789,10 +789,10 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>43890.375</v>
@@ -806,10 +806,10 @@
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>43891.375</v>
@@ -826,10 +826,10 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
         <v>43893.375</v>
@@ -846,10 +846,10 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1">
         <v>43895.375</v>
@@ -866,10 +866,10 @@
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>43896.375</v>
@@ -886,10 +886,10 @@
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>43897.375</v>
@@ -906,10 +906,10 @@
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>43898.375</v>
@@ -929,10 +929,10 @@
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>43900.375</v>
@@ -952,10 +952,10 @@
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <v>43901.375</v>
@@ -978,10 +978,10 @@
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>43902.375</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1">
         <v>43904.375</v>
@@ -1096,10 +1096,10 @@
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1">
         <v>43905.375</v>
@@ -1173,10 +1173,10 @@
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1">
         <v>43907.4375</v>
@@ -1250,10 +1250,10 @@
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>43907.833333333336</v>
@@ -1327,10 +1327,10 @@
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1">
         <v>43908.722222222219</v>
@@ -1404,10 +1404,10 @@
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>43909.479166666664</v>
@@ -1481,10 +1481,10 @@
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1">
         <v>43909.770833333336</v>
@@ -1565,8 +1565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="A194" sqref="A194:C215"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1578,30 +1578,30 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" t="s">
         <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>43861.375</v>
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1618,10 +1618,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1">
         <v>43869.375</v>
@@ -1630,7 +1630,7 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -1638,10 +1638,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>43875.375</v>
@@ -1650,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>4</v>
@@ -1658,10 +1658,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="1">
         <v>43877.375</v>
@@ -1670,7 +1670,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -1678,10 +1678,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>43881.375</v>
@@ -1690,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -1698,10 +1698,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C7" s="1">
         <v>43882.375</v>
@@ -1710,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -1718,10 +1718,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C8" s="1">
         <v>43885.375</v>
@@ -1730,7 +1730,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>6</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>43886.375</v>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>7</v>
@@ -1758,10 +1758,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1">
         <v>43887.375</v>
@@ -1770,7 +1770,7 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>7</v>
@@ -1778,10 +1778,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1">
         <v>43888.375</v>
@@ -1790,7 +1790,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>7</v>
@@ -1798,10 +1798,10 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C12" s="1">
         <v>43890.375</v>
@@ -1810,7 +1810,7 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>7</v>
@@ -1818,10 +1818,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="1">
         <v>43891.375</v>
@@ -1830,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>8</v>
@@ -1838,10 +1838,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C14" s="1">
         <v>43893.375</v>
@@ -1850,7 +1850,7 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>12</v>
@@ -1858,10 +1858,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1">
         <v>43895.375</v>
@@ -1870,7 +1870,7 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>21</v>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="1">
         <v>43896.375</v>
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>21</v>
@@ -1898,10 +1898,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C17" s="1">
         <v>43897.375</v>
@@ -1910,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>27</v>
@@ -1918,10 +1918,10 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1">
         <v>43898.375</v>
@@ -1930,7 +1930,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>27</v>
@@ -1938,10 +1938,10 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1">
         <v>43900.375</v>
@@ -1950,7 +1950,7 @@
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>32</v>
@@ -1958,10 +1958,10 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C20" s="1">
         <v>43901.375</v>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>39</v>
@@ -1978,10 +1978,10 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" s="1">
         <v>43902.375</v>
@@ -1990,7 +1990,7 @@
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>46</v>
@@ -1998,10 +1998,10 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C22" s="1">
         <v>43904.375</v>
@@ -2010,7 +2010,7 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>64</v>
@@ -2018,10 +2018,10 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C23" s="1">
         <v>43905.375</v>
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>73</v>
@@ -2038,10 +2038,10 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C24" s="1">
         <v>43902.375</v>
@@ -2050,7 +2050,7 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F24">
         <v>0</v>
@@ -2058,10 +2058,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C25" s="1">
         <v>43904.375</v>
@@ -2070,7 +2070,7 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -2078,10 +2078,10 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" s="1">
         <v>43905.375</v>
@@ -2090,7 +2090,7 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -2098,10 +2098,10 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C27" s="1">
         <v>43898.375</v>
@@ -2110,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -2118,10 +2118,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1">
         <v>43900.375</v>
@@ -2130,7 +2130,7 @@
         <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F28">
         <v>7</v>
@@ -2138,10 +2138,10 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C29" s="1">
         <v>43901.375</v>
@@ -2150,7 +2150,7 @@
         <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F29">
         <v>14</v>
@@ -2158,10 +2158,10 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1">
         <v>43902.375</v>
@@ -2170,7 +2170,7 @@
         <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F30">
         <v>19</v>
@@ -2178,10 +2178,10 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1">
         <v>43904.375</v>
@@ -2190,7 +2190,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F31">
         <v>29</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C32" s="1">
         <v>43905.375</v>
@@ -2210,7 +2210,7 @@
         <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F32">
         <v>39</v>
@@ -2218,10 +2218,10 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C33" s="1">
         <v>43902.375</v>
@@ -2230,7 +2230,7 @@
         <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2238,10 +2238,10 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>43904.375</v>
@@ -2250,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2258,10 +2258,10 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C35" s="1">
         <v>43905.375</v>
@@ -2270,7 +2270,7 @@
         <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2278,10 +2278,10 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="1">
         <v>43902.375</v>
@@ -2290,7 +2290,7 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2298,10 +2298,10 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C37" s="1">
         <v>43904.375</v>
@@ -2310,7 +2310,7 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2318,10 +2318,10 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
         <v>43905.375</v>
@@ -2330,7 +2330,7 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2338,10 +2338,10 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C39" s="1">
         <v>43902.375</v>
@@ -2350,7 +2350,7 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -2358,10 +2358,10 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C40" s="1">
         <v>43904.375</v>
@@ -2370,7 +2370,7 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F40">
         <v>2</v>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C41" s="1">
         <v>43905.375</v>
@@ -2390,7 +2390,7 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F41">
         <v>5</v>
@@ -2398,19 +2398,19 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C42" s="1">
         <v>43902.375</v>
       </c>
       <c r="D42" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -2418,19 +2418,19 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1">
         <v>43904.375</v>
       </c>
       <c r="D43" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2438,19 +2438,19 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C44" s="1">
         <v>43905.375</v>
       </c>
       <c r="D44" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F44">
         <v>4</v>
@@ -2458,19 +2458,19 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C45" s="1">
         <v>43902.375</v>
       </c>
       <c r="D45" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E45" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2478,19 +2478,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C46" s="1">
         <v>43904.375</v>
       </c>
       <c r="D46" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F46">
         <v>3</v>
@@ -2498,19 +2498,19 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C47" s="1">
         <v>43905.375</v>
       </c>
       <c r="D47" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F47">
         <v>3</v>
@@ -2518,19 +2518,19 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C48" s="1">
         <v>43861.375</v>
       </c>
       <c r="D48" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -2538,19 +2538,19 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C49" s="1">
         <v>43869.375</v>
       </c>
       <c r="D49" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -2558,19 +2558,19 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C50" s="1">
         <v>43875.375</v>
       </c>
       <c r="D50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F50">
         <v>3</v>
@@ -2578,19 +2578,19 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C51" s="1">
         <v>43877.375</v>
       </c>
       <c r="D51" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F51">
         <v>3</v>
@@ -2598,19 +2598,19 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C52" s="1">
         <v>43881.375</v>
       </c>
       <c r="D52" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F52">
         <v>3</v>
@@ -2618,19 +2618,19 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C53" s="1">
         <v>43882.375</v>
       </c>
       <c r="D53" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -2638,19 +2638,19 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C54" s="1">
         <v>43885.375</v>
       </c>
       <c r="D54" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F54">
         <v>4</v>
@@ -2658,19 +2658,19 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C55" s="1">
         <v>43886.375</v>
       </c>
       <c r="D55" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -2678,19 +2678,19 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C56" s="1">
         <v>43887.375</v>
       </c>
       <c r="D56" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F56">
         <v>5</v>
@@ -2698,19 +2698,19 @@
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C57" s="1">
         <v>43888.375</v>
       </c>
       <c r="D57" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F57">
         <v>6</v>
@@ -2718,19 +2718,19 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B58" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C58" s="1">
         <v>43890.375</v>
       </c>
       <c r="D58" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F58">
         <v>8</v>
@@ -2738,19 +2738,19 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C59" s="1">
         <v>43891.375</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F59">
         <v>15</v>
@@ -2758,19 +2758,19 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C60" s="1">
         <v>43893.375</v>
       </c>
       <c r="D60" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F60">
         <v>20</v>
@@ -2778,19 +2778,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B61" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C61" s="1">
         <v>43895.375</v>
       </c>
       <c r="D61" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F61">
         <v>22</v>
@@ -2798,19 +2798,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B62" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C62" s="1">
         <v>43896.375</v>
       </c>
       <c r="D62" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F62">
         <v>28</v>
@@ -2818,19 +2818,19 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C63" s="1">
         <v>43897.375</v>
       </c>
       <c r="D63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F63">
         <v>28</v>
@@ -2838,19 +2838,19 @@
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C64" s="1">
         <v>43898.375</v>
       </c>
       <c r="D64" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F64">
         <v>31</v>
@@ -2858,19 +2858,19 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C65" s="1">
         <v>43900.375</v>
       </c>
       <c r="D65" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F65">
         <v>34</v>
@@ -2878,19 +2878,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B66" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C66" s="1">
         <v>43901.375</v>
       </c>
       <c r="D66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F66">
         <v>42</v>
@@ -2898,19 +2898,19 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C67" s="1">
         <v>43902.375</v>
       </c>
       <c r="D67" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F67">
         <v>59</v>
@@ -2918,19 +2918,19 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C68" s="1">
         <v>43904.375</v>
       </c>
       <c r="D68" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F68">
         <v>79</v>
@@ -2938,19 +2938,19 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C69" s="1">
         <v>43905.375</v>
       </c>
       <c r="D69" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F69">
         <v>142</v>
@@ -2958,19 +2958,19 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C70" s="1">
         <v>43902.375</v>
       </c>
       <c r="D70" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -2978,19 +2978,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C71" s="1">
         <v>43904.375</v>
       </c>
       <c r="D71" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -2998,19 +2998,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C72" s="1">
         <v>43905.375</v>
       </c>
       <c r="D72" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E72" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -3018,19 +3018,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B73" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C73" s="1">
         <v>43891.375</v>
       </c>
       <c r="D73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -3038,19 +3038,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C74" s="1">
         <v>43893.375</v>
       </c>
       <c r="D74" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3058,19 +3058,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C75" s="1">
         <v>43895.375</v>
       </c>
       <c r="D75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F75">
         <v>2</v>
@@ -3078,19 +3078,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B76" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C76" s="1">
         <v>43896.375</v>
       </c>
       <c r="D76" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F76">
         <v>2</v>
@@ -3098,19 +3098,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B77" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C77" s="1">
         <v>43897.375</v>
       </c>
       <c r="D77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -3118,19 +3118,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C78" s="1">
         <v>43898.375</v>
       </c>
       <c r="D78" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F78">
         <v>3</v>
@@ -3138,19 +3138,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B79" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C79" s="1">
         <v>43900.375</v>
       </c>
       <c r="D79" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F79">
         <v>4</v>
@@ -3158,19 +3158,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B80" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C80" s="1">
         <v>43901.375</v>
       </c>
       <c r="D80" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F80">
         <v>7</v>
@@ -3178,19 +3178,19 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B81" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C81" s="1">
         <v>43902.375</v>
       </c>
       <c r="D81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F81">
         <v>13</v>
@@ -3198,19 +3198,19 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C82" s="1">
         <v>43904.375</v>
       </c>
       <c r="D82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F82">
         <v>17</v>
@@ -3218,19 +3218,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C83" s="1">
         <v>43905.375</v>
       </c>
       <c r="D83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F83">
         <v>39</v>
@@ -3238,19 +3238,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C84" s="1">
         <v>43902.375</v>
       </c>
       <c r="D84" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E84" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F84">
         <v>0</v>
@@ -3258,19 +3258,19 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B85" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C85" s="1">
         <v>43904.375</v>
       </c>
       <c r="D85" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F85">
         <v>0</v>
@@ -3278,19 +3278,19 @@
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C86" s="1">
         <v>43905.375</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E86" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -3298,19 +3298,19 @@
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C87" s="1">
         <v>43905.375</v>
       </c>
       <c r="D87" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F87">
         <v>0</v>
@@ -3318,19 +3318,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C88" s="1">
         <v>43905.375</v>
       </c>
       <c r="D88" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E88" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -3338,19 +3338,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C89" s="1">
         <v>43902.375</v>
       </c>
       <c r="D89" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F89">
         <v>0</v>
@@ -3358,19 +3358,19 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C90" s="1">
         <v>43904.375</v>
       </c>
       <c r="D90" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -3378,19 +3378,19 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C91" s="1">
         <v>43905.375</v>
       </c>
       <c r="D91" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -3398,19 +3398,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C92" s="1">
         <v>43902.375</v>
       </c>
       <c r="D92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E92" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -3418,19 +3418,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C93" s="1">
         <v>43904.375</v>
       </c>
       <c r="D93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E93" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -3438,19 +3438,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C94" s="1">
         <v>43905.375</v>
       </c>
       <c r="D94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F94">
         <v>5</v>
@@ -3458,19 +3458,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C95" s="1">
         <v>43905.375</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -3478,19 +3478,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B96" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C96" s="1">
         <v>43905.375</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E96" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F96">
         <v>3</v>
@@ -3498,19 +3498,19 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B97" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C97" s="1">
         <v>43905.375</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3518,19 +3518,19 @@
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B98" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C98" s="1">
         <v>43905.375</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E98" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F98">
         <v>0</v>
@@ -3538,19 +3538,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B99" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C99" s="1">
         <v>43901.375</v>
       </c>
       <c r="D99" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E99" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -3558,19 +3558,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C100" s="1">
         <v>43902.375</v>
       </c>
       <c r="D100" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -3578,19 +3578,19 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B101" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C101" s="1">
         <v>43904.375</v>
       </c>
       <c r="D101" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F101">
         <v>2</v>
@@ -3598,19 +3598,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B102" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C102" s="1">
         <v>43905.375</v>
       </c>
       <c r="D102" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F102">
         <v>4</v>
@@ -3618,19 +3618,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B103" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C103" s="1">
         <v>43902.375</v>
       </c>
       <c r="D103" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E103" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -3638,19 +3638,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B104" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C104" s="1">
         <v>43904.375</v>
       </c>
       <c r="D104" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E104" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -3658,19 +3658,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B105" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C105" s="1">
         <v>43905.375</v>
       </c>
       <c r="D105" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E105" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F105">
         <v>0</v>
@@ -3678,10 +3678,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B106" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C106" s="1">
         <v>43907.4375</v>
@@ -3690,7 +3690,7 @@
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F106">
         <v>103</v>
@@ -3698,10 +3698,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B107" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C107" s="1">
         <v>43907.4375</v>
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -3718,10 +3718,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B108" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C108" s="1">
         <v>43907.4375</v>
@@ -3730,7 +3730,7 @@
         <v>2</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F108">
         <v>74</v>
@@ -3738,10 +3738,10 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B109" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C109" s="1">
         <v>43907.4375</v>
@@ -3750,7 +3750,7 @@
         <v>2</v>
       </c>
       <c r="E109" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3758,10 +3758,10 @@
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B110" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C110" s="1">
         <v>43907.4375</v>
@@ -3770,7 +3770,7 @@
         <v>3</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F110">
         <v>2</v>
@@ -3778,10 +3778,10 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C111" s="1">
         <v>43907.4375</v>
@@ -3790,7 +3790,7 @@
         <v>3</v>
       </c>
       <c r="E111" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F111">
         <v>5</v>
@@ -3798,19 +3798,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B112" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C112" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D112" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F112">
         <v>7</v>
@@ -3818,19 +3818,19 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B113" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C113" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D113" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E113" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F113">
         <v>0</v>
@@ -3838,19 +3838,19 @@
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B114" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C114" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D114" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F114">
         <v>177</v>
@@ -3858,19 +3858,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C115" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D115" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F115">
         <v>0</v>
@@ -3878,19 +3878,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B116" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C116" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D116" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F116">
         <v>50</v>
@@ -3898,19 +3898,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C117" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E117" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F117">
         <v>0</v>
@@ -3918,19 +3918,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B118" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C118" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F118">
         <v>0</v>
@@ -3938,19 +3938,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B119" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C119" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -3958,19 +3958,19 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B120" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C120" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D120" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E120" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F120">
         <v>2</v>
@@ -3978,19 +3978,19 @@
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C121" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D121" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E121" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F121">
         <v>5</v>
@@ -3998,19 +3998,19 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B122" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C122" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F122">
         <v>0</v>
@@ -4018,19 +4018,19 @@
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C123" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E123" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F123">
         <v>5</v>
@@ -4038,19 +4038,19 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B124" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C124" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -4058,19 +4058,19 @@
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B125" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C125" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E125" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F125">
         <v>0</v>
@@ -4078,19 +4078,19 @@
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B126" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C126" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D126" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E126" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F126">
         <v>8</v>
@@ -4098,19 +4098,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B127" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C127" s="1">
         <v>43907.4375</v>
       </c>
       <c r="D127" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E127" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F127">
         <v>0</v>
@@ -4118,10 +4118,10 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B128" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C128" s="1">
         <v>43907.833333333336</v>
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F128">
         <v>186</v>
@@ -4138,10 +4138,10 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B129" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C129" s="1">
         <v>43907.833333333336</v>
@@ -4150,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="E129" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F129">
         <v>0</v>
@@ -4158,10 +4158,10 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B130" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C130" s="1">
         <v>43907.833333333336</v>
@@ -4170,7 +4170,7 @@
         <v>2</v>
       </c>
       <c r="E130" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F130">
         <v>97</v>
@@ -4178,10 +4178,10 @@
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B131" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C131" s="1">
         <v>43907.833333333336</v>
@@ -4190,7 +4190,7 @@
         <v>2</v>
       </c>
       <c r="E131" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -4198,10 +4198,10 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B132" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C132" s="1">
         <v>43907.833333333336</v>
@@ -4210,7 +4210,7 @@
         <v>3</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F132">
         <v>2</v>
@@ -4218,10 +4218,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B133" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C133" s="1">
         <v>43907.833333333336</v>
@@ -4230,7 +4230,7 @@
         <v>3</v>
       </c>
       <c r="E133" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F133">
         <v>6</v>
@@ -4238,19 +4238,19 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B134" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C134" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D134" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F134">
         <v>8</v>
@@ -4258,19 +4258,19 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B135" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C135" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D135" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E135" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F135">
         <v>7</v>
@@ -4278,19 +4278,19 @@
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B136" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C136" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D136" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F136">
         <v>189</v>
@@ -4298,19 +4298,19 @@
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B137" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C137" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D137" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E137" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F137">
         <v>0</v>
@@ -4318,19 +4318,19 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B138" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C138" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D138" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F138">
         <v>74</v>
@@ -4338,19 +4338,19 @@
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C139" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D139" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E139" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -4358,19 +4358,19 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B140" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C140" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D140" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F140">
         <v>0</v>
@@ -4378,19 +4378,19 @@
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B141" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C141" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D141" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E141" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -4398,19 +4398,19 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B142" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C142" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E142" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F142">
         <v>2</v>
@@ -4418,19 +4418,19 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B143" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C143" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D143" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F143">
         <v>6</v>
@@ -4438,19 +4438,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B144" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C144" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E144" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -4458,19 +4458,19 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B145" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C145" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E145" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F145">
         <v>6</v>
@@ -4478,19 +4478,19 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B146" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C146" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -4498,19 +4498,19 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B147" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C147" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E147" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F147">
         <v>0</v>
@@ -4518,19 +4518,19 @@
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B148" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C148" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D148" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F148">
         <v>9</v>
@@ -4538,19 +4538,19 @@
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B149" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C149" s="1">
         <v>43907.833333333336</v>
       </c>
       <c r="D149" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E149" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F149">
         <v>0</v>
@@ -4558,10 +4558,10 @@
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B150" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C150" s="1">
         <v>43908.722222222219</v>
@@ -4570,7 +4570,7 @@
         <v>1</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F150">
         <v>186</v>
@@ -4578,10 +4578,10 @@
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B151" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C151" s="1">
         <v>43908.722222222219</v>
@@ -4590,7 +4590,7 @@
         <v>1</v>
       </c>
       <c r="E151" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F151">
         <v>0</v>
@@ -4598,10 +4598,10 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B152" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C152" s="1">
         <v>43908.722222222219</v>
@@ -4610,7 +4610,7 @@
         <v>2</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F152">
         <v>97</v>
@@ -4618,10 +4618,10 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B153" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C153" s="1">
         <v>43908.722222222219</v>
@@ -4630,7 +4630,7 @@
         <v>2</v>
       </c>
       <c r="E153" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F153">
         <v>0</v>
@@ -4638,10 +4638,10 @@
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B154" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C154" s="1">
         <v>43908.722222222219</v>
@@ -4650,7 +4650,7 @@
         <v>3</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F154">
         <v>2</v>
@@ -4658,10 +4658,10 @@
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C155" s="1">
         <v>43908.722222222219</v>
@@ -4670,7 +4670,7 @@
         <v>3</v>
       </c>
       <c r="E155" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F155">
         <v>14</v>
@@ -4678,19 +4678,19 @@
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B156" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C156" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D156" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F156">
         <v>15</v>
@@ -4698,19 +4698,19 @@
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B157" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C157" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D157" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E157" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F157">
         <v>0</v>
@@ -4718,19 +4718,19 @@
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B158" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C158" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D158" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F158">
         <v>212</v>
@@ -4738,19 +4738,19 @@
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B159" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C159" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E159" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F159">
         <v>0</v>
@@ -4758,19 +4758,19 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B160" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C160" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D160" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F160">
         <v>94</v>
@@ -4778,19 +4778,19 @@
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B161" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C161" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D161" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E161" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F161">
         <v>0</v>
@@ -4798,19 +4798,19 @@
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B162" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C162" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E162" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F162">
         <v>0</v>
@@ -4818,19 +4818,19 @@
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B163" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C163" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E163" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F163">
         <v>3</v>
@@ -4838,19 +4838,19 @@
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B164" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C164" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E164" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F164">
         <v>2</v>
@@ -4858,19 +4858,19 @@
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B165" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C165" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F165">
         <v>9</v>
@@ -4878,19 +4878,19 @@
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B166" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C166" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F166">
         <v>3</v>
@@ -4898,19 +4898,19 @@
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B167" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C167" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E167" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F167">
         <v>9</v>
@@ -4918,19 +4918,19 @@
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B168" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C168" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -4938,19 +4938,19 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B169" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C169" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E169" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F169">
         <v>0</v>
@@ -4958,19 +4958,19 @@
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B170" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C170" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D170" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F170">
         <v>9</v>
@@ -4978,19 +4978,19 @@
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B171" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C171" s="1">
         <v>43908.722222222219</v>
       </c>
       <c r="D171" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E171" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F171">
         <v>0</v>
@@ -4998,10 +4998,10 @@
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B172" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C172" s="1">
         <v>43909.479166666664</v>
@@ -5010,7 +5010,7 @@
         <v>1</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F172">
         <v>231</v>
@@ -5018,10 +5018,10 @@
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B173" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C173" s="1">
         <v>43909.479166666664</v>
@@ -5030,7 +5030,7 @@
         <v>1</v>
       </c>
       <c r="E173" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F173">
         <v>0</v>
@@ -5038,10 +5038,10 @@
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B174" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C174" s="1">
         <v>43909.479166666664</v>
@@ -5050,7 +5050,7 @@
         <v>2</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F174">
         <v>119</v>
@@ -5058,10 +5058,10 @@
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C175" s="1">
         <v>43909.479166666664</v>
@@ -5070,7 +5070,7 @@
         <v>2</v>
       </c>
       <c r="E175" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F175">
         <v>0</v>
@@ -5078,10 +5078,10 @@
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B176" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C176" s="1">
         <v>43909.479166666664</v>
@@ -5090,7 +5090,7 @@
         <v>3</v>
       </c>
       <c r="E176" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F176">
         <v>2</v>
@@ -5098,10 +5098,10 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B177" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C177" s="1">
         <v>43909.479166666664</v>
@@ -5110,7 +5110,7 @@
         <v>3</v>
       </c>
       <c r="E177" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F177">
         <v>14</v>
@@ -5118,19 +5118,19 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B178" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C178" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D178" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F178">
         <v>15</v>
@@ -5138,19 +5138,19 @@
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B179" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C179" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D179" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E179" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F179">
         <v>0</v>
@@ -5158,19 +5158,19 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B180" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C180" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D180" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E180" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F180">
         <v>257</v>
@@ -5178,19 +5178,19 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B181" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C181" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D181" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E181" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F181">
         <v>0</v>
@@ -5198,19 +5198,19 @@
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B182" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C182" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D182" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F182">
         <v>94</v>
@@ -5218,19 +5218,19 @@
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B183" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C183" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D183" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E183" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F183">
         <v>0</v>
@@ -5238,19 +5238,19 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B184" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C184" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E184" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -5258,19 +5258,19 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B185" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C185" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E185" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F185">
         <v>2</v>
@@ -5278,19 +5278,19 @@
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B186" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C186" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D186" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F186">
         <v>2</v>
@@ -5298,19 +5298,19 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B187" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C187" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F187">
         <v>9</v>
@@ -5318,19 +5318,19 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B188" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C188" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F188">
         <v>5</v>
@@ -5338,19 +5338,19 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B189" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C189" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E189" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F189">
         <v>9</v>
@@ -5358,19 +5358,19 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B190" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C190" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -5378,19 +5378,19 @@
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B191" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C191" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E191" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F191">
         <v>0</v>
@@ -5398,19 +5398,19 @@
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B192" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C192" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D192" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F192">
         <v>9</v>
@@ -5418,19 +5418,19 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B193" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C193" s="1">
         <v>43909.479166666664</v>
       </c>
       <c r="D193" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E193" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -5438,10 +5438,10 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B194" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C194" s="1">
         <v>43909.770833333336</v>
@@ -5450,7 +5450,7 @@
         <v>1</v>
       </c>
       <c r="E194" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F194">
         <v>271</v>
@@ -5458,10 +5458,10 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B195" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C195" s="1">
         <v>43909.770833333336</v>
@@ -5470,7 +5470,7 @@
         <v>1</v>
       </c>
       <c r="E195" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F195">
         <v>0</v>
@@ -5478,10 +5478,10 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B196" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C196" s="1">
         <v>43909.770833333336</v>
@@ -5490,7 +5490,7 @@
         <v>2</v>
       </c>
       <c r="E196" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F196">
         <v>146</v>
@@ -5498,10 +5498,10 @@
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B197" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C197" s="1">
         <v>43909.770833333336</v>
@@ -5510,7 +5510,7 @@
         <v>2</v>
       </c>
       <c r="E197" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F197">
         <v>0</v>
@@ -5518,10 +5518,10 @@
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B198" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C198" s="1">
         <v>43909.770833333336</v>
@@ -5530,7 +5530,7 @@
         <v>3</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F198">
         <v>8</v>
@@ -5538,10 +5538,10 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B199" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C199" s="1">
         <v>43909.770833333336</v>
@@ -5550,7 +5550,7 @@
         <v>3</v>
       </c>
       <c r="E199" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F199">
         <v>12</v>
@@ -5558,19 +5558,19 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B200" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C200" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D200" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E200" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F200">
         <v>17</v>
@@ -5578,19 +5578,19 @@
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B201" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C201" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D201" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="E201" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F201">
         <v>0</v>
@@ -5598,19 +5598,19 @@
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B202" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C202" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D202" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E202" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F202">
         <v>258</v>
@@ -5618,19 +5618,19 @@
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B203" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C203" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D203" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E203" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F203">
         <v>0</v>
@@ -5638,19 +5638,19 @@
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B204" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C204" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D204" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F204">
         <v>121</v>
@@ -5658,19 +5658,19 @@
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B205" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C205" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D205" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E205" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F205">
         <v>0</v>
@@ -5678,19 +5678,19 @@
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B206" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C206" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -5698,19 +5698,19 @@
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B207" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C207" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D207" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E207" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F207">
         <v>2</v>
@@ -5718,19 +5718,19 @@
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B208" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C208" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E208" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F208">
         <v>7</v>
@@ -5738,19 +5738,19 @@
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B209" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C209" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F209">
         <v>4</v>
@@ -5758,19 +5758,19 @@
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B210" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C210" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F210">
         <v>5</v>
@@ -5778,19 +5778,19 @@
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B211" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C211" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E211" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F211">
         <v>9</v>
@@ -5798,19 +5798,19 @@
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B212" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C212" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D212" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F212">
         <v>2</v>
@@ -5818,19 +5818,19 @@
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B213" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C213" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D213" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E213" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F213">
         <v>0</v>
@@ -5838,19 +5838,19 @@
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B214" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C214" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D214" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="F214">
         <v>10</v>
@@ -5858,19 +5858,19 @@
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B215" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C215" s="1">
         <v>43909.770833333336</v>
       </c>
       <c r="D215" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E215" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F215">
         <v>3</v>

--- a/canada_covid.xlsx
+++ b/canada_covid.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9108"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="9108" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,42 @@
   </si>
   <si>
     <t>MB_prob</t>
+  </si>
+  <si>
+    <t>BC_deaths</t>
+  </si>
+  <si>
+    <t>AB_deaths</t>
+  </si>
+  <si>
+    <t>SK_deaths</t>
+  </si>
+  <si>
+    <t>MB_deaths</t>
+  </si>
+  <si>
+    <t>ON_deaths</t>
+  </si>
+  <si>
+    <t>QC_deaths</t>
+  </si>
+  <si>
+    <t>NL_deaths</t>
+  </si>
+  <si>
+    <t>NB_deaths</t>
+  </si>
+  <si>
+    <t>NS_deaths</t>
+  </si>
+  <si>
+    <t>PEI_deaths</t>
+  </si>
+  <si>
+    <t>Repat_deaths</t>
+  </si>
+  <si>
+    <t>deaths</t>
   </si>
 </sst>
 </file>
@@ -493,7 +529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -526,11 +562,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y28"/>
+  <dimension ref="A1:AJ29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -540,7 +576,7 @@
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -557,67 +593,100 @@
         <v>18</v>
       </c>
       <c r="F1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>16</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
+        <v>53</v>
+      </c>
+      <c r="S1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" t="s">
+      <c r="U1" t="s">
+        <v>54</v>
+      </c>
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="W1" t="s">
         <v>25</v>
       </c>
-      <c r="R1" t="s">
+      <c r="X1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" t="s">
         <v>26</v>
       </c>
-      <c r="S1" t="s">
+      <c r="Z1" t="s">
         <v>27</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AA1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB1" t="s">
         <v>28</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AC1" t="s">
         <v>29</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AD1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE1" t="s">
         <v>30</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AF1" t="s">
         <v>31</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH1" t="s">
         <v>32</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AI1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AJ1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -630,11 +699,11 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="P2">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -647,11 +716,11 @@
       <c r="D3">
         <v>4</v>
       </c>
-      <c r="L3">
+      <c r="P3">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -664,11 +733,11 @@
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="L4">
+      <c r="P4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -681,11 +750,11 @@
       <c r="D5">
         <v>5</v>
       </c>
-      <c r="L5">
+      <c r="P5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -698,11 +767,11 @@
       <c r="D6">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="P6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -715,11 +784,11 @@
       <c r="D7">
         <v>6</v>
       </c>
-      <c r="L7">
+      <c r="P7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -732,11 +801,11 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="L8">
+      <c r="P8">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -749,11 +818,11 @@
       <c r="D9">
         <v>7</v>
       </c>
-      <c r="L9">
+      <c r="P9">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -766,11 +835,11 @@
       <c r="D10">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="P10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -783,11 +852,11 @@
       <c r="D11">
         <v>7</v>
       </c>
-      <c r="L11">
+      <c r="P11">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -800,11 +869,11 @@
       <c r="D12">
         <v>7</v>
       </c>
-      <c r="L12">
+      <c r="P12">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -817,14 +886,14 @@
       <c r="D13">
         <v>8</v>
       </c>
-      <c r="L13">
+      <c r="P13">
         <v>15</v>
       </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -837,14 +906,14 @@
       <c r="D14">
         <v>12</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>20</v>
       </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="S14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -857,14 +926,14 @@
       <c r="D15">
         <v>21</v>
       </c>
-      <c r="L15">
+      <c r="P15">
         <v>22</v>
       </c>
-      <c r="N15">
+      <c r="S15">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -877,14 +946,14 @@
       <c r="D16">
         <v>21</v>
       </c>
-      <c r="L16">
+      <c r="P16">
         <v>28</v>
       </c>
-      <c r="N16">
+      <c r="S16">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -897,14 +966,14 @@
       <c r="D17">
         <v>27</v>
       </c>
-      <c r="L17">
+      <c r="P17">
         <v>28</v>
       </c>
-      <c r="N17">
+      <c r="S17">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -917,17 +986,17 @@
       <c r="D18">
         <v>27</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="L18">
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="P18">
         <v>31</v>
       </c>
-      <c r="N18">
+      <c r="S18">
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -940,17 +1009,17 @@
       <c r="D19">
         <v>32</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>7</v>
       </c>
-      <c r="L19">
-        <v>34</v>
-      </c>
-      <c r="N19">
+      <c r="P19">
+        <v>34</v>
+      </c>
+      <c r="S19">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -963,20 +1032,20 @@
       <c r="D20">
         <v>39</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>14</v>
       </c>
-      <c r="L20">
+      <c r="P20">
         <v>42</v>
       </c>
-      <c r="N20">
+      <c r="S20">
         <v>7</v>
       </c>
-      <c r="X20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AH20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -992,50 +1061,50 @@
       <c r="E21">
         <v>0</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>19</v>
       </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21">
-        <v>1</v>
-      </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21">
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="P21">
         <v>59</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="S21">
         <v>13</v>
       </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>1</v>
-      </c>
-      <c r="X21">
-        <v>1</v>
+      <c r="T21">
+        <v>0</v>
       </c>
       <c r="Y21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="Z21">
+        <v>1</v>
+      </c>
+      <c r="AH21">
+        <v>1</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1051,50 +1120,50 @@
       <c r="E22">
         <v>0</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>29</v>
       </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="I22">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>2</v>
       </c>
-      <c r="J22">
-        <v>1</v>
-      </c>
-      <c r="K22">
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
         <v>3</v>
       </c>
-      <c r="L22">
+      <c r="P22">
         <v>79</v>
       </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="S22">
         <v>17</v>
       </c>
-      <c r="O22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>1</v>
-      </c>
-      <c r="S22">
-        <v>1</v>
-      </c>
-      <c r="X22">
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>1</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AH22">
         <v>2</v>
       </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AI22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1110,68 +1179,68 @@
       <c r="E23">
         <v>0</v>
       </c>
-      <c r="F23">
-        <v>39</v>
-      </c>
       <c r="G23">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="H23">
-        <v>1</v>
-      </c>
-      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
         <v>5</v>
       </c>
-      <c r="J23">
+      <c r="M23">
         <v>4</v>
       </c>
-      <c r="K23">
+      <c r="N23">
         <v>3</v>
       </c>
-      <c r="L23">
+      <c r="P23">
         <v>142</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>39</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
       <c r="Q23">
-        <v>1</v>
-      </c>
-      <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
+        <v>39</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>1</v>
+      </c>
+      <c r="Y23">
+        <v>1</v>
+      </c>
+      <c r="Z23">
         <v>5</v>
       </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>3</v>
       </c>
-      <c r="V23">
-        <v>1</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
+      <c r="AE23">
+        <v>1</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
         <v>4</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AI23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1187,68 +1256,68 @@
       <c r="E24">
         <v>0</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>74</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>2</v>
       </c>
-      <c r="I24">
+      <c r="K24">
         <v>5</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>7</v>
       </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="P24">
         <v>177</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="S24">
         <v>50</v>
       </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>1</v>
-      </c>
-      <c r="R24">
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>1</v>
+      </c>
+      <c r="Y24">
         <v>2</v>
       </c>
-      <c r="S24">
+      <c r="Z24">
         <v>5</v>
       </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
         <v>5</v>
       </c>
-      <c r="V24">
-        <v>1</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
+      <c r="AE24">
+        <v>1</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
         <v>8</v>
       </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AI24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1264,68 +1333,68 @@
       <c r="E25">
         <v>0</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>97</v>
       </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
       <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="J25">
         <v>2</v>
       </c>
-      <c r="I25">
+      <c r="K25">
         <v>6</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>8</v>
       </c>
-      <c r="K25">
+      <c r="N25">
         <v>7</v>
       </c>
-      <c r="L25">
+      <c r="P25">
         <v>189</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>74</v>
       </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>1</v>
-      </c>
-      <c r="R25">
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>1</v>
+      </c>
+      <c r="Y25">
         <v>2</v>
       </c>
-      <c r="S25">
+      <c r="Z25">
         <v>6</v>
       </c>
-      <c r="T25">
-        <v>1</v>
-      </c>
-      <c r="U25">
+      <c r="AB25">
+        <v>1</v>
+      </c>
+      <c r="AC25">
         <v>6</v>
       </c>
-      <c r="V25">
-        <v>1</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
         <v>9</v>
       </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AI25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1341,68 +1410,68 @@
       <c r="E26">
         <v>0</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>97</v>
       </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
       <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="J26">
         <v>2</v>
       </c>
-      <c r="I26">
+      <c r="K26">
         <v>14</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>15</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="P26">
         <v>212</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="S26">
         <v>94</v>
       </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
         <v>3</v>
       </c>
-      <c r="R26">
+      <c r="Y26">
         <v>2</v>
       </c>
-      <c r="S26">
+      <c r="Z26">
         <v>9</v>
       </c>
-      <c r="T26">
+      <c r="AB26">
         <v>3</v>
       </c>
-      <c r="U26">
+      <c r="AC26">
         <v>9</v>
       </c>
-      <c r="V26">
-        <v>1</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
+      <c r="AE26">
+        <v>1</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
         <v>9</v>
       </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AI26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1418,68 +1487,68 @@
       <c r="E27">
         <v>0</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>119</v>
       </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
       <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27">
         <v>2</v>
       </c>
-      <c r="I27">
+      <c r="K27">
         <v>14</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>15</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="P27">
         <v>257</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="S27">
         <v>94</v>
       </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>1</v>
-      </c>
-      <c r="Q27">
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27">
         <v>2</v>
       </c>
-      <c r="R27">
+      <c r="Y27">
         <v>2</v>
       </c>
-      <c r="S27">
+      <c r="Z27">
         <v>9</v>
       </c>
-      <c r="T27">
+      <c r="AB27">
         <v>5</v>
       </c>
-      <c r="U27">
+      <c r="AC27">
         <v>9</v>
       </c>
-      <c r="V27">
-        <v>1</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
+      <c r="AE27">
+        <v>1</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
         <v>9</v>
       </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="AI27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1495,65 +1564,175 @@
       <c r="E28">
         <v>0</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>146</v>
       </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
       <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28">
         <v>8</v>
       </c>
-      <c r="I28">
+      <c r="K28">
         <v>12</v>
       </c>
-      <c r="J28">
+      <c r="M28">
         <v>17</v>
       </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="P28">
         <v>258</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="S28">
         <v>121</v>
       </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28">
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28">
         <v>2</v>
       </c>
-      <c r="R28">
+      <c r="Y28">
         <v>7</v>
       </c>
-      <c r="S28">
+      <c r="Z28">
         <v>4</v>
       </c>
-      <c r="T28">
+      <c r="AB28">
         <v>5</v>
       </c>
-      <c r="U28">
+      <c r="AC28">
         <v>9</v>
       </c>
-      <c r="V28">
+      <c r="AE28">
         <v>2</v>
       </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
         <v>10</v>
       </c>
-      <c r="Y28">
+      <c r="AI28">
         <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D29">
+        <v>348</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>9</v>
+      </c>
+      <c r="G29">
+        <v>195</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>8</v>
+      </c>
+      <c r="K29">
+        <v>18</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>17</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>311</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
+      <c r="S29">
+        <v>139</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+      <c r="V29">
+        <v>3</v>
+      </c>
+      <c r="W29">
+        <v>1</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>7</v>
+      </c>
+      <c r="Z29">
+        <v>4</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>5</v>
+      </c>
+      <c r="AC29">
+        <v>10</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>2</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>13</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+      <c r="AJ29">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1563,10 +1742,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F248"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217:C248"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5876,6 +6055,666 @@
         <v>3</v>
       </c>
     </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
+        <v>45</v>
+      </c>
+      <c r="B216" t="s">
+        <v>37</v>
+      </c>
+      <c r="C216" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D216" t="s">
+        <v>1</v>
+      </c>
+      <c r="E216" t="s">
+        <v>38</v>
+      </c>
+      <c r="F216">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
+        <v>45</v>
+      </c>
+      <c r="B217" t="s">
+        <v>37</v>
+      </c>
+      <c r="C217" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D217" t="s">
+        <v>1</v>
+      </c>
+      <c r="E217" t="s">
+        <v>39</v>
+      </c>
+      <c r="F217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
+        <v>45</v>
+      </c>
+      <c r="B218" t="s">
+        <v>37</v>
+      </c>
+      <c r="C218" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D218" t="s">
+        <v>1</v>
+      </c>
+      <c r="E218" t="s">
+        <v>60</v>
+      </c>
+      <c r="F218">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
+        <v>45</v>
+      </c>
+      <c r="B219" t="s">
+        <v>37</v>
+      </c>
+      <c r="C219" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D219" t="s">
+        <v>2</v>
+      </c>
+      <c r="E219" t="s">
+        <v>38</v>
+      </c>
+      <c r="F219">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
+        <v>45</v>
+      </c>
+      <c r="B220" t="s">
+        <v>37</v>
+      </c>
+      <c r="C220" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D220" t="s">
+        <v>2</v>
+      </c>
+      <c r="E220" t="s">
+        <v>39</v>
+      </c>
+      <c r="F220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
+        <v>45</v>
+      </c>
+      <c r="B221" t="s">
+        <v>37</v>
+      </c>
+      <c r="C221" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D221" t="s">
+        <v>2</v>
+      </c>
+      <c r="E221" t="s">
+        <v>60</v>
+      </c>
+      <c r="F221">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
+        <v>45</v>
+      </c>
+      <c r="B222" t="s">
+        <v>37</v>
+      </c>
+      <c r="C222" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D222" t="s">
+        <v>3</v>
+      </c>
+      <c r="E222" t="s">
+        <v>38</v>
+      </c>
+      <c r="F222">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
+        <v>45</v>
+      </c>
+      <c r="B223" t="s">
+        <v>37</v>
+      </c>
+      <c r="C223" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D223" t="s">
+        <v>3</v>
+      </c>
+      <c r="E223" t="s">
+        <v>39</v>
+      </c>
+      <c r="F223">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
+        <v>45</v>
+      </c>
+      <c r="B224" t="s">
+        <v>37</v>
+      </c>
+      <c r="C224" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D224" t="s">
+        <v>3</v>
+      </c>
+      <c r="E224" t="s">
+        <v>60</v>
+      </c>
+      <c r="F224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
+        <v>45</v>
+      </c>
+      <c r="B225" t="s">
+        <v>37</v>
+      </c>
+      <c r="C225" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D225" t="s">
+        <v>46</v>
+      </c>
+      <c r="E225" t="s">
+        <v>38</v>
+      </c>
+      <c r="F225">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A226" t="s">
+        <v>45</v>
+      </c>
+      <c r="B226" t="s">
+        <v>37</v>
+      </c>
+      <c r="C226" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D226" t="s">
+        <v>46</v>
+      </c>
+      <c r="E226" t="s">
+        <v>39</v>
+      </c>
+      <c r="F226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A227" t="s">
+        <v>45</v>
+      </c>
+      <c r="B227" t="s">
+        <v>37</v>
+      </c>
+      <c r="C227" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D227" t="s">
+        <v>46</v>
+      </c>
+      <c r="E227" t="s">
+        <v>60</v>
+      </c>
+      <c r="F227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A228" t="s">
+        <v>45</v>
+      </c>
+      <c r="B228" t="s">
+        <v>37</v>
+      </c>
+      <c r="C228" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D228" t="s">
+        <v>4</v>
+      </c>
+      <c r="E228" t="s">
+        <v>38</v>
+      </c>
+      <c r="F228">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A229" t="s">
+        <v>45</v>
+      </c>
+      <c r="B229" t="s">
+        <v>37</v>
+      </c>
+      <c r="C229" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D229" t="s">
+        <v>4</v>
+      </c>
+      <c r="E229" t="s">
+        <v>39</v>
+      </c>
+      <c r="F229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A230" t="s">
+        <v>45</v>
+      </c>
+      <c r="B230" t="s">
+        <v>37</v>
+      </c>
+      <c r="C230" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D230" t="s">
+        <v>4</v>
+      </c>
+      <c r="E230" t="s">
+        <v>60</v>
+      </c>
+      <c r="F230">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A231" t="s">
+        <v>45</v>
+      </c>
+      <c r="B231" t="s">
+        <v>37</v>
+      </c>
+      <c r="C231" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D231" t="s">
+        <v>5</v>
+      </c>
+      <c r="E231" t="s">
+        <v>38</v>
+      </c>
+      <c r="F231">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A232" t="s">
+        <v>45</v>
+      </c>
+      <c r="B232" t="s">
+        <v>37</v>
+      </c>
+      <c r="C232" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D232" t="s">
+        <v>5</v>
+      </c>
+      <c r="E232" t="s">
+        <v>39</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A233" t="s">
+        <v>45</v>
+      </c>
+      <c r="B233" t="s">
+        <v>37</v>
+      </c>
+      <c r="C233" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D233" t="s">
+        <v>5</v>
+      </c>
+      <c r="E233" t="s">
+        <v>60</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A234" t="s">
+        <v>45</v>
+      </c>
+      <c r="B234" t="s">
+        <v>37</v>
+      </c>
+      <c r="C234" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" t="s">
+        <v>38</v>
+      </c>
+      <c r="F234">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A235" t="s">
+        <v>45</v>
+      </c>
+      <c r="B235" t="s">
+        <v>37</v>
+      </c>
+      <c r="C235" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D235" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235" t="s">
+        <v>39</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A236" t="s">
+        <v>45</v>
+      </c>
+      <c r="B236" t="s">
+        <v>37</v>
+      </c>
+      <c r="C236" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" t="s">
+        <v>60</v>
+      </c>
+      <c r="F236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A237" t="s">
+        <v>45</v>
+      </c>
+      <c r="B237" t="s">
+        <v>37</v>
+      </c>
+      <c r="C237" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D237" t="s">
+        <v>7</v>
+      </c>
+      <c r="E237" t="s">
+        <v>38</v>
+      </c>
+      <c r="F237">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A238" t="s">
+        <v>45</v>
+      </c>
+      <c r="B238" t="s">
+        <v>37</v>
+      </c>
+      <c r="C238" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D238" t="s">
+        <v>7</v>
+      </c>
+      <c r="E238" t="s">
+        <v>39</v>
+      </c>
+      <c r="F238">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A239" t="s">
+        <v>45</v>
+      </c>
+      <c r="B239" t="s">
+        <v>37</v>
+      </c>
+      <c r="C239" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D239" t="s">
+        <v>7</v>
+      </c>
+      <c r="E239" t="s">
+        <v>60</v>
+      </c>
+      <c r="F239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A240" t="s">
+        <v>45</v>
+      </c>
+      <c r="B240" t="s">
+        <v>37</v>
+      </c>
+      <c r="C240" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D240" t="s">
+        <v>8</v>
+      </c>
+      <c r="E240" t="s">
+        <v>38</v>
+      </c>
+      <c r="F240">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A241" t="s">
+        <v>45</v>
+      </c>
+      <c r="B241" t="s">
+        <v>37</v>
+      </c>
+      <c r="C241" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D241" t="s">
+        <v>8</v>
+      </c>
+      <c r="E241" t="s">
+        <v>39</v>
+      </c>
+      <c r="F241">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A242" t="s">
+        <v>45</v>
+      </c>
+      <c r="B242" t="s">
+        <v>37</v>
+      </c>
+      <c r="C242" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D242" t="s">
+        <v>8</v>
+      </c>
+      <c r="E242" t="s">
+        <v>60</v>
+      </c>
+      <c r="F242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" t="s">
+        <v>45</v>
+      </c>
+      <c r="B243" t="s">
+        <v>37</v>
+      </c>
+      <c r="C243" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D243" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243" t="s">
+        <v>38</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" t="s">
+        <v>45</v>
+      </c>
+      <c r="B244" t="s">
+        <v>37</v>
+      </c>
+      <c r="C244" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D244" t="s">
+        <v>9</v>
+      </c>
+      <c r="E244" t="s">
+        <v>39</v>
+      </c>
+      <c r="F244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" t="s">
+        <v>45</v>
+      </c>
+      <c r="B245" t="s">
+        <v>37</v>
+      </c>
+      <c r="C245" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D245" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" t="s">
+        <v>60</v>
+      </c>
+      <c r="F245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" t="s">
+        <v>45</v>
+      </c>
+      <c r="B246" t="s">
+        <v>37</v>
+      </c>
+      <c r="C246" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D246" t="s">
+        <v>40</v>
+      </c>
+      <c r="E246" t="s">
+        <v>38</v>
+      </c>
+      <c r="F246">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" t="s">
+        <v>45</v>
+      </c>
+      <c r="B247" t="s">
+        <v>37</v>
+      </c>
+      <c r="C247" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D247" t="s">
+        <v>40</v>
+      </c>
+      <c r="E247" t="s">
+        <v>39</v>
+      </c>
+      <c r="F247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" t="s">
+        <v>45</v>
+      </c>
+      <c r="B248" t="s">
+        <v>37</v>
+      </c>
+      <c r="C248" s="1">
+        <v>43911.375</v>
+      </c>
+      <c r="D248" t="s">
+        <v>40</v>
+      </c>
+      <c r="E248" t="s">
+        <v>60</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/canada_covid.xlsx
+++ b/canada_covid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -209,6 +209,30 @@
   </si>
   <si>
     <t>deaths</t>
+  </si>
+  <si>
+    <t>YK_conf</t>
+  </si>
+  <si>
+    <t>YK_prob</t>
+  </si>
+  <si>
+    <t>YK_deaths</t>
+  </si>
+  <si>
+    <t>NT_conf</t>
+  </si>
+  <si>
+    <t>NT_prob</t>
+  </si>
+  <si>
+    <t>NT_deaths</t>
+  </si>
+  <si>
+    <t>YK</t>
+  </si>
+  <si>
+    <t>NT</t>
   </si>
 </sst>
 </file>
@@ -562,11 +586,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AJ29"/>
+  <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -576,7 +600,7 @@
     <col min="3" max="3" width="15.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>35</v>
       </c>
@@ -685,8 +709,26 @@
       <c r="AJ1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="AK1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -703,7 +745,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -720,7 +762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -737,7 +779,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>34</v>
       </c>
@@ -754,7 +796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -771,7 +813,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -788,7 +830,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -805,7 +847,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -822,7 +864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>34</v>
       </c>
@@ -839,7 +881,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -856,7 +898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -873,7 +915,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -893,7 +935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -913,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -933,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -953,7 +995,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -973,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -996,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -1019,7 +1061,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1045,7 +1087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1104,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1163,7 +1205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1240,7 +1282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>45</v>
       </c>
@@ -1317,7 +1359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1394,7 +1436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>45</v>
       </c>
@@ -1471,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>45</v>
       </c>
@@ -1548,7 +1590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>45</v>
       </c>
@@ -1625,7 +1667,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>45</v>
       </c>
@@ -1732,6 +1774,134 @@
         <v>0</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D30">
+        <v>424</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>10</v>
+      </c>
+      <c r="G30">
+        <v>259</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>33</v>
+      </c>
+      <c r="K30">
+        <v>19</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>11</v>
+      </c>
+      <c r="N30">
+        <v>9</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>425</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>221</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>3</v>
+      </c>
+      <c r="W30">
+        <v>6</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>9</v>
+      </c>
+      <c r="Z30">
+        <v>8</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>28</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>3</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>13</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+      <c r="AJ30">
+        <v>0</v>
+      </c>
+      <c r="AK30">
+        <v>2</v>
+      </c>
+      <c r="AL30">
+        <v>0</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
         <v>0</v>
       </c>
     </row>
@@ -1742,10 +1912,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F248"/>
+  <dimension ref="A1:F287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A203" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217:C248"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C249" sqref="C249:C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6715,6 +6885,786 @@
         <v>0</v>
       </c>
     </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" t="s">
+        <v>45</v>
+      </c>
+      <c r="B249" t="s">
+        <v>37</v>
+      </c>
+      <c r="C249" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D249" t="s">
+        <v>1</v>
+      </c>
+      <c r="E249" t="s">
+        <v>38</v>
+      </c>
+      <c r="F249">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A250" t="s">
+        <v>45</v>
+      </c>
+      <c r="B250" t="s">
+        <v>37</v>
+      </c>
+      <c r="C250" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D250" t="s">
+        <v>1</v>
+      </c>
+      <c r="E250" t="s">
+        <v>39</v>
+      </c>
+      <c r="F250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A251" t="s">
+        <v>45</v>
+      </c>
+      <c r="B251" t="s">
+        <v>37</v>
+      </c>
+      <c r="C251" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D251" t="s">
+        <v>1</v>
+      </c>
+      <c r="E251" t="s">
+        <v>60</v>
+      </c>
+      <c r="F251">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A252" t="s">
+        <v>45</v>
+      </c>
+      <c r="B252" t="s">
+        <v>37</v>
+      </c>
+      <c r="C252" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D252" t="s">
+        <v>2</v>
+      </c>
+      <c r="E252" t="s">
+        <v>38</v>
+      </c>
+      <c r="F252">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" t="s">
+        <v>45</v>
+      </c>
+      <c r="B253" t="s">
+        <v>37</v>
+      </c>
+      <c r="C253" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D253" t="s">
+        <v>2</v>
+      </c>
+      <c r="E253" t="s">
+        <v>39</v>
+      </c>
+      <c r="F253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" t="s">
+        <v>45</v>
+      </c>
+      <c r="B254" t="s">
+        <v>37</v>
+      </c>
+      <c r="C254" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D254" t="s">
+        <v>2</v>
+      </c>
+      <c r="E254" t="s">
+        <v>60</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A255" t="s">
+        <v>45</v>
+      </c>
+      <c r="B255" t="s">
+        <v>37</v>
+      </c>
+      <c r="C255" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D255" t="s">
+        <v>3</v>
+      </c>
+      <c r="E255" t="s">
+        <v>38</v>
+      </c>
+      <c r="F255">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A256" t="s">
+        <v>45</v>
+      </c>
+      <c r="B256" t="s">
+        <v>37</v>
+      </c>
+      <c r="C256" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D256" t="s">
+        <v>3</v>
+      </c>
+      <c r="E256" t="s">
+        <v>39</v>
+      </c>
+      <c r="F256">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A257" t="s">
+        <v>45</v>
+      </c>
+      <c r="B257" t="s">
+        <v>37</v>
+      </c>
+      <c r="C257" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D257" t="s">
+        <v>3</v>
+      </c>
+      <c r="E257" t="s">
+        <v>60</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A258" t="s">
+        <v>45</v>
+      </c>
+      <c r="B258" t="s">
+        <v>37</v>
+      </c>
+      <c r="C258" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D258" t="s">
+        <v>46</v>
+      </c>
+      <c r="E258" t="s">
+        <v>38</v>
+      </c>
+      <c r="F258">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A259" t="s">
+        <v>45</v>
+      </c>
+      <c r="B259" t="s">
+        <v>37</v>
+      </c>
+      <c r="C259" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D259" t="s">
+        <v>46</v>
+      </c>
+      <c r="E259" t="s">
+        <v>39</v>
+      </c>
+      <c r="F259">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A260" t="s">
+        <v>45</v>
+      </c>
+      <c r="B260" t="s">
+        <v>37</v>
+      </c>
+      <c r="C260" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D260" t="s">
+        <v>46</v>
+      </c>
+      <c r="E260" t="s">
+        <v>60</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A261" t="s">
+        <v>45</v>
+      </c>
+      <c r="B261" t="s">
+        <v>37</v>
+      </c>
+      <c r="C261" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D261" t="s">
+        <v>4</v>
+      </c>
+      <c r="E261" t="s">
+        <v>38</v>
+      </c>
+      <c r="F261">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A262" t="s">
+        <v>45</v>
+      </c>
+      <c r="B262" t="s">
+        <v>37</v>
+      </c>
+      <c r="C262" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D262" t="s">
+        <v>4</v>
+      </c>
+      <c r="E262" t="s">
+        <v>39</v>
+      </c>
+      <c r="F262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A263" t="s">
+        <v>45</v>
+      </c>
+      <c r="B263" t="s">
+        <v>37</v>
+      </c>
+      <c r="C263" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D263" t="s">
+        <v>4</v>
+      </c>
+      <c r="E263" t="s">
+        <v>60</v>
+      </c>
+      <c r="F263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A264" t="s">
+        <v>45</v>
+      </c>
+      <c r="B264" t="s">
+        <v>37</v>
+      </c>
+      <c r="C264" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D264" t="s">
+        <v>5</v>
+      </c>
+      <c r="E264" t="s">
+        <v>38</v>
+      </c>
+      <c r="F264">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A265" t="s">
+        <v>45</v>
+      </c>
+      <c r="B265" t="s">
+        <v>37</v>
+      </c>
+      <c r="C265" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D265" t="s">
+        <v>5</v>
+      </c>
+      <c r="E265" t="s">
+        <v>39</v>
+      </c>
+      <c r="F265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A266" t="s">
+        <v>45</v>
+      </c>
+      <c r="B266" t="s">
+        <v>37</v>
+      </c>
+      <c r="C266" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D266" t="s">
+        <v>5</v>
+      </c>
+      <c r="E266" t="s">
+        <v>60</v>
+      </c>
+      <c r="F266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A267" t="s">
+        <v>45</v>
+      </c>
+      <c r="B267" t="s">
+        <v>37</v>
+      </c>
+      <c r="C267" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D267" t="s">
+        <v>6</v>
+      </c>
+      <c r="E267" t="s">
+        <v>38</v>
+      </c>
+      <c r="F267">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A268" t="s">
+        <v>45</v>
+      </c>
+      <c r="B268" t="s">
+        <v>37</v>
+      </c>
+      <c r="C268" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D268" t="s">
+        <v>6</v>
+      </c>
+      <c r="E268" t="s">
+        <v>39</v>
+      </c>
+      <c r="F268">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A269" t="s">
+        <v>45</v>
+      </c>
+      <c r="B269" t="s">
+        <v>37</v>
+      </c>
+      <c r="C269" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D269" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269" t="s">
+        <v>60</v>
+      </c>
+      <c r="F269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A270" t="s">
+        <v>45</v>
+      </c>
+      <c r="B270" t="s">
+        <v>37</v>
+      </c>
+      <c r="C270" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D270" t="s">
+        <v>7</v>
+      </c>
+      <c r="E270" t="s">
+        <v>38</v>
+      </c>
+      <c r="F270">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A271" t="s">
+        <v>45</v>
+      </c>
+      <c r="B271" t="s">
+        <v>37</v>
+      </c>
+      <c r="C271" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D271" t="s">
+        <v>7</v>
+      </c>
+      <c r="E271" t="s">
+        <v>39</v>
+      </c>
+      <c r="F271">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A272" t="s">
+        <v>45</v>
+      </c>
+      <c r="B272" t="s">
+        <v>37</v>
+      </c>
+      <c r="C272" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D272" t="s">
+        <v>7</v>
+      </c>
+      <c r="E272" t="s">
+        <v>60</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A273" t="s">
+        <v>45</v>
+      </c>
+      <c r="B273" t="s">
+        <v>37</v>
+      </c>
+      <c r="C273" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D273" t="s">
+        <v>8</v>
+      </c>
+      <c r="E273" t="s">
+        <v>38</v>
+      </c>
+      <c r="F273">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A274" t="s">
+        <v>45</v>
+      </c>
+      <c r="B274" t="s">
+        <v>37</v>
+      </c>
+      <c r="C274" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D274" t="s">
+        <v>8</v>
+      </c>
+      <c r="E274" t="s">
+        <v>39</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A275" t="s">
+        <v>45</v>
+      </c>
+      <c r="B275" t="s">
+        <v>37</v>
+      </c>
+      <c r="C275" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D275" t="s">
+        <v>8</v>
+      </c>
+      <c r="E275" t="s">
+        <v>60</v>
+      </c>
+      <c r="F275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A276" t="s">
+        <v>45</v>
+      </c>
+      <c r="B276" t="s">
+        <v>37</v>
+      </c>
+      <c r="C276" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D276" t="s">
+        <v>9</v>
+      </c>
+      <c r="E276" t="s">
+        <v>38</v>
+      </c>
+      <c r="F276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A277" t="s">
+        <v>45</v>
+      </c>
+      <c r="B277" t="s">
+        <v>37</v>
+      </c>
+      <c r="C277" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D277" t="s">
+        <v>9</v>
+      </c>
+      <c r="E277" t="s">
+        <v>39</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A278" t="s">
+        <v>45</v>
+      </c>
+      <c r="B278" t="s">
+        <v>37</v>
+      </c>
+      <c r="C278" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D278" t="s">
+        <v>9</v>
+      </c>
+      <c r="E278" t="s">
+        <v>60</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A279" t="s">
+        <v>45</v>
+      </c>
+      <c r="B279" t="s">
+        <v>37</v>
+      </c>
+      <c r="C279" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D279" t="s">
+        <v>40</v>
+      </c>
+      <c r="E279" t="s">
+        <v>38</v>
+      </c>
+      <c r="F279">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A280" t="s">
+        <v>45</v>
+      </c>
+      <c r="B280" t="s">
+        <v>37</v>
+      </c>
+      <c r="C280" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D280" t="s">
+        <v>40</v>
+      </c>
+      <c r="E280" t="s">
+        <v>39</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A281" t="s">
+        <v>45</v>
+      </c>
+      <c r="B281" t="s">
+        <v>37</v>
+      </c>
+      <c r="C281" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D281" t="s">
+        <v>40</v>
+      </c>
+      <c r="E281" t="s">
+        <v>60</v>
+      </c>
+      <c r="F281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A282" t="s">
+        <v>45</v>
+      </c>
+      <c r="B282" t="s">
+        <v>37</v>
+      </c>
+      <c r="C282" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D282" t="s">
+        <v>67</v>
+      </c>
+      <c r="E282" t="s">
+        <v>38</v>
+      </c>
+      <c r="F282">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A283" t="s">
+        <v>45</v>
+      </c>
+      <c r="B283" t="s">
+        <v>37</v>
+      </c>
+      <c r="C283" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D283" t="s">
+        <v>67</v>
+      </c>
+      <c r="E283" t="s">
+        <v>39</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A284" t="s">
+        <v>45</v>
+      </c>
+      <c r="B284" t="s">
+        <v>37</v>
+      </c>
+      <c r="C284" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D284" t="s">
+        <v>67</v>
+      </c>
+      <c r="E284" t="s">
+        <v>60</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A285" t="s">
+        <v>45</v>
+      </c>
+      <c r="B285" t="s">
+        <v>37</v>
+      </c>
+      <c r="C285" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D285" t="s">
+        <v>68</v>
+      </c>
+      <c r="E285" t="s">
+        <v>38</v>
+      </c>
+      <c r="F285">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A286" t="s">
+        <v>45</v>
+      </c>
+      <c r="B286" t="s">
+        <v>37</v>
+      </c>
+      <c r="C286" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D286" t="s">
+        <v>68</v>
+      </c>
+      <c r="E286" t="s">
+        <v>39</v>
+      </c>
+      <c r="F286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A287" t="s">
+        <v>45</v>
+      </c>
+      <c r="B287" t="s">
+        <v>37</v>
+      </c>
+      <c r="C287" s="1">
+        <v>43913.458333333336</v>
+      </c>
+      <c r="D287" t="s">
+        <v>68</v>
+      </c>
+      <c r="E287" t="s">
+        <v>60</v>
+      </c>
+      <c r="F287">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/canada_covid.xlsx
+++ b/canada_covid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1254" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -586,11 +586,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP30"/>
+  <dimension ref="A1:AP31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C30" sqref="C30"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1905,6 +1905,134 @@
         <v>0</v>
       </c>
     </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D31">
+        <v>472</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>301</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>65</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>11</v>
+      </c>
+      <c r="N31">
+        <v>9</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>503</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>221</v>
+      </c>
+      <c r="T31">
+        <v>407</v>
+      </c>
+      <c r="U31">
+        <v>4</v>
+      </c>
+      <c r="V31">
+        <v>4</v>
+      </c>
+      <c r="W31">
+        <v>20</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>9</v>
+      </c>
+      <c r="Z31">
+        <v>8</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>41</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>3</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>13</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+      <c r="AJ31">
+        <v>0</v>
+      </c>
+      <c r="AK31">
+        <v>2</v>
+      </c>
+      <c r="AL31">
+        <v>0</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1912,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F287"/>
+  <dimension ref="A1:F326"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C249" sqref="C249:C287"/>
+    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
+      <selection activeCell="C288" sqref="C288:C326"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7665,6 +7793,786 @@
         <v>0</v>
       </c>
     </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A288" t="s">
+        <v>45</v>
+      </c>
+      <c r="B288" t="s">
+        <v>37</v>
+      </c>
+      <c r="C288" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D288" t="s">
+        <v>1</v>
+      </c>
+      <c r="E288" t="s">
+        <v>38</v>
+      </c>
+      <c r="F288">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A289" t="s">
+        <v>45</v>
+      </c>
+      <c r="B289" t="s">
+        <v>37</v>
+      </c>
+      <c r="C289" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D289" t="s">
+        <v>1</v>
+      </c>
+      <c r="E289" t="s">
+        <v>39</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A290" t="s">
+        <v>45</v>
+      </c>
+      <c r="B290" t="s">
+        <v>37</v>
+      </c>
+      <c r="C290" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D290" t="s">
+        <v>1</v>
+      </c>
+      <c r="E290" t="s">
+        <v>60</v>
+      </c>
+      <c r="F290">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A291" t="s">
+        <v>45</v>
+      </c>
+      <c r="B291" t="s">
+        <v>37</v>
+      </c>
+      <c r="C291" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D291" t="s">
+        <v>2</v>
+      </c>
+      <c r="E291" t="s">
+        <v>38</v>
+      </c>
+      <c r="F291">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A292" t="s">
+        <v>45</v>
+      </c>
+      <c r="B292" t="s">
+        <v>37</v>
+      </c>
+      <c r="C292" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D292" t="s">
+        <v>2</v>
+      </c>
+      <c r="E292" t="s">
+        <v>39</v>
+      </c>
+      <c r="F292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A293" t="s">
+        <v>45</v>
+      </c>
+      <c r="B293" t="s">
+        <v>37</v>
+      </c>
+      <c r="C293" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D293" t="s">
+        <v>2</v>
+      </c>
+      <c r="E293" t="s">
+        <v>60</v>
+      </c>
+      <c r="F293">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A294" t="s">
+        <v>45</v>
+      </c>
+      <c r="B294" t="s">
+        <v>37</v>
+      </c>
+      <c r="C294" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D294" t="s">
+        <v>3</v>
+      </c>
+      <c r="E294" t="s">
+        <v>38</v>
+      </c>
+      <c r="F294">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A295" t="s">
+        <v>45</v>
+      </c>
+      <c r="B295" t="s">
+        <v>37</v>
+      </c>
+      <c r="C295" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D295" t="s">
+        <v>3</v>
+      </c>
+      <c r="E295" t="s">
+        <v>39</v>
+      </c>
+      <c r="F295">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A296" t="s">
+        <v>45</v>
+      </c>
+      <c r="B296" t="s">
+        <v>37</v>
+      </c>
+      <c r="C296" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D296" t="s">
+        <v>3</v>
+      </c>
+      <c r="E296" t="s">
+        <v>60</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A297" t="s">
+        <v>45</v>
+      </c>
+      <c r="B297" t="s">
+        <v>37</v>
+      </c>
+      <c r="C297" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D297" t="s">
+        <v>46</v>
+      </c>
+      <c r="E297" t="s">
+        <v>38</v>
+      </c>
+      <c r="F297">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A298" t="s">
+        <v>45</v>
+      </c>
+      <c r="B298" t="s">
+        <v>37</v>
+      </c>
+      <c r="C298" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D298" t="s">
+        <v>46</v>
+      </c>
+      <c r="E298" t="s">
+        <v>39</v>
+      </c>
+      <c r="F298">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A299" t="s">
+        <v>45</v>
+      </c>
+      <c r="B299" t="s">
+        <v>37</v>
+      </c>
+      <c r="C299" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D299" t="s">
+        <v>46</v>
+      </c>
+      <c r="E299" t="s">
+        <v>60</v>
+      </c>
+      <c r="F299">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A300" t="s">
+        <v>45</v>
+      </c>
+      <c r="B300" t="s">
+        <v>37</v>
+      </c>
+      <c r="C300" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D300" t="s">
+        <v>4</v>
+      </c>
+      <c r="E300" t="s">
+        <v>38</v>
+      </c>
+      <c r="F300">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A301" t="s">
+        <v>45</v>
+      </c>
+      <c r="B301" t="s">
+        <v>37</v>
+      </c>
+      <c r="C301" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D301" t="s">
+        <v>4</v>
+      </c>
+      <c r="E301" t="s">
+        <v>39</v>
+      </c>
+      <c r="F301">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A302" t="s">
+        <v>45</v>
+      </c>
+      <c r="B302" t="s">
+        <v>37</v>
+      </c>
+      <c r="C302" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D302" t="s">
+        <v>4</v>
+      </c>
+      <c r="E302" t="s">
+        <v>60</v>
+      </c>
+      <c r="F302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A303" t="s">
+        <v>45</v>
+      </c>
+      <c r="B303" t="s">
+        <v>37</v>
+      </c>
+      <c r="C303" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D303" t="s">
+        <v>5</v>
+      </c>
+      <c r="E303" t="s">
+        <v>38</v>
+      </c>
+      <c r="F303">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A304" t="s">
+        <v>45</v>
+      </c>
+      <c r="B304" t="s">
+        <v>37</v>
+      </c>
+      <c r="C304" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D304" t="s">
+        <v>5</v>
+      </c>
+      <c r="E304" t="s">
+        <v>39</v>
+      </c>
+      <c r="F304">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A305" t="s">
+        <v>45</v>
+      </c>
+      <c r="B305" t="s">
+        <v>37</v>
+      </c>
+      <c r="C305" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D305" t="s">
+        <v>5</v>
+      </c>
+      <c r="E305" t="s">
+        <v>60</v>
+      </c>
+      <c r="F305">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A306" t="s">
+        <v>45</v>
+      </c>
+      <c r="B306" t="s">
+        <v>37</v>
+      </c>
+      <c r="C306" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D306" t="s">
+        <v>6</v>
+      </c>
+      <c r="E306" t="s">
+        <v>38</v>
+      </c>
+      <c r="F306">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A307" t="s">
+        <v>45</v>
+      </c>
+      <c r="B307" t="s">
+        <v>37</v>
+      </c>
+      <c r="C307" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D307" t="s">
+        <v>6</v>
+      </c>
+      <c r="E307" t="s">
+        <v>39</v>
+      </c>
+      <c r="F307">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A308" t="s">
+        <v>45</v>
+      </c>
+      <c r="B308" t="s">
+        <v>37</v>
+      </c>
+      <c r="C308" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D308" t="s">
+        <v>6</v>
+      </c>
+      <c r="E308" t="s">
+        <v>60</v>
+      </c>
+      <c r="F308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A309" t="s">
+        <v>45</v>
+      </c>
+      <c r="B309" t="s">
+        <v>37</v>
+      </c>
+      <c r="C309" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D309" t="s">
+        <v>7</v>
+      </c>
+      <c r="E309" t="s">
+        <v>38</v>
+      </c>
+      <c r="F309">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A310" t="s">
+        <v>45</v>
+      </c>
+      <c r="B310" t="s">
+        <v>37</v>
+      </c>
+      <c r="C310" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D310" t="s">
+        <v>7</v>
+      </c>
+      <c r="E310" t="s">
+        <v>39</v>
+      </c>
+      <c r="F310">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A311" t="s">
+        <v>45</v>
+      </c>
+      <c r="B311" t="s">
+        <v>37</v>
+      </c>
+      <c r="C311" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D311" t="s">
+        <v>7</v>
+      </c>
+      <c r="E311" t="s">
+        <v>60</v>
+      </c>
+      <c r="F311">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A312" t="s">
+        <v>45</v>
+      </c>
+      <c r="B312" t="s">
+        <v>37</v>
+      </c>
+      <c r="C312" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D312" t="s">
+        <v>8</v>
+      </c>
+      <c r="E312" t="s">
+        <v>38</v>
+      </c>
+      <c r="F312">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A313" t="s">
+        <v>45</v>
+      </c>
+      <c r="B313" t="s">
+        <v>37</v>
+      </c>
+      <c r="C313" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D313" t="s">
+        <v>8</v>
+      </c>
+      <c r="E313" t="s">
+        <v>39</v>
+      </c>
+      <c r="F313">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A314" t="s">
+        <v>45</v>
+      </c>
+      <c r="B314" t="s">
+        <v>37</v>
+      </c>
+      <c r="C314" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D314" t="s">
+        <v>8</v>
+      </c>
+      <c r="E314" t="s">
+        <v>60</v>
+      </c>
+      <c r="F314">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A315" t="s">
+        <v>45</v>
+      </c>
+      <c r="B315" t="s">
+        <v>37</v>
+      </c>
+      <c r="C315" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D315" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" t="s">
+        <v>38</v>
+      </c>
+      <c r="F315">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A316" t="s">
+        <v>45</v>
+      </c>
+      <c r="B316" t="s">
+        <v>37</v>
+      </c>
+      <c r="C316" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D316" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>39</v>
+      </c>
+      <c r="F316">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A317" t="s">
+        <v>45</v>
+      </c>
+      <c r="B317" t="s">
+        <v>37</v>
+      </c>
+      <c r="C317" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D317" t="s">
+        <v>9</v>
+      </c>
+      <c r="E317" t="s">
+        <v>60</v>
+      </c>
+      <c r="F317">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A318" t="s">
+        <v>45</v>
+      </c>
+      <c r="B318" t="s">
+        <v>37</v>
+      </c>
+      <c r="C318" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D318" t="s">
+        <v>40</v>
+      </c>
+      <c r="E318" t="s">
+        <v>38</v>
+      </c>
+      <c r="F318">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A319" t="s">
+        <v>45</v>
+      </c>
+      <c r="B319" t="s">
+        <v>37</v>
+      </c>
+      <c r="C319" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D319" t="s">
+        <v>40</v>
+      </c>
+      <c r="E319" t="s">
+        <v>39</v>
+      </c>
+      <c r="F319">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A320" t="s">
+        <v>45</v>
+      </c>
+      <c r="B320" t="s">
+        <v>37</v>
+      </c>
+      <c r="C320" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D320" t="s">
+        <v>40</v>
+      </c>
+      <c r="E320" t="s">
+        <v>60</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A321" t="s">
+        <v>45</v>
+      </c>
+      <c r="B321" t="s">
+        <v>37</v>
+      </c>
+      <c r="C321" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D321" t="s">
+        <v>67</v>
+      </c>
+      <c r="E321" t="s">
+        <v>38</v>
+      </c>
+      <c r="F321">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A322" t="s">
+        <v>45</v>
+      </c>
+      <c r="B322" t="s">
+        <v>37</v>
+      </c>
+      <c r="C322" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D322" t="s">
+        <v>67</v>
+      </c>
+      <c r="E322" t="s">
+        <v>39</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A323" t="s">
+        <v>45</v>
+      </c>
+      <c r="B323" t="s">
+        <v>37</v>
+      </c>
+      <c r="C323" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D323" t="s">
+        <v>67</v>
+      </c>
+      <c r="E323" t="s">
+        <v>60</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A324" t="s">
+        <v>45</v>
+      </c>
+      <c r="B324" t="s">
+        <v>37</v>
+      </c>
+      <c r="C324" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D324" t="s">
+        <v>68</v>
+      </c>
+      <c r="E324" t="s">
+        <v>38</v>
+      </c>
+      <c r="F324">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A325" t="s">
+        <v>45</v>
+      </c>
+      <c r="B325" t="s">
+        <v>37</v>
+      </c>
+      <c r="C325" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D325" t="s">
+        <v>68</v>
+      </c>
+      <c r="E325" t="s">
+        <v>39</v>
+      </c>
+      <c r="F325">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A326" t="s">
+        <v>45</v>
+      </c>
+      <c r="B326" t="s">
+        <v>37</v>
+      </c>
+      <c r="C326" s="1">
+        <v>43913.75</v>
+      </c>
+      <c r="D326" t="s">
+        <v>68</v>
+      </c>
+      <c r="E326" t="s">
+        <v>60</v>
+      </c>
+      <c r="F326">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/canada_covid.xlsx
+++ b/canada_covid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -586,11 +586,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP31"/>
+  <dimension ref="A1:AP32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2033,6 +2033,134 @@
         <v>0</v>
       </c>
     </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D32">
+        <v>617</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>358</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>2</v>
+      </c>
+      <c r="J32">
+        <v>72</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>11</v>
+      </c>
+      <c r="N32">
+        <v>10</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>588</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>8</v>
+      </c>
+      <c r="S32">
+        <v>221</v>
+      </c>
+      <c r="T32">
+        <v>792</v>
+      </c>
+      <c r="U32">
+        <v>4</v>
+      </c>
+      <c r="V32">
+        <v>4</v>
+      </c>
+      <c r="W32">
+        <v>31</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>18</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>51</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>3</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>13</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+      <c r="AJ32">
+        <v>0</v>
+      </c>
+      <c r="AK32">
+        <v>2</v>
+      </c>
+      <c r="AL32">
+        <v>0</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2040,10 +2168,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F326"/>
+  <dimension ref="A1:F365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" workbookViewId="0">
-      <selection activeCell="C288" sqref="C288:C326"/>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="A327" sqref="A327:C365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8573,6 +8701,786 @@
         <v>0</v>
       </c>
     </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A327" t="s">
+        <v>45</v>
+      </c>
+      <c r="B327" t="s">
+        <v>37</v>
+      </c>
+      <c r="C327" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D327" t="s">
+        <v>1</v>
+      </c>
+      <c r="E327" t="s">
+        <v>38</v>
+      </c>
+      <c r="F327">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A328" t="s">
+        <v>45</v>
+      </c>
+      <c r="B328" t="s">
+        <v>37</v>
+      </c>
+      <c r="C328" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D328" t="s">
+        <v>1</v>
+      </c>
+      <c r="E328" t="s">
+        <v>39</v>
+      </c>
+      <c r="F328">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A329" t="s">
+        <v>45</v>
+      </c>
+      <c r="B329" t="s">
+        <v>37</v>
+      </c>
+      <c r="C329" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D329" t="s">
+        <v>1</v>
+      </c>
+      <c r="E329" t="s">
+        <v>60</v>
+      </c>
+      <c r="F329">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A330" t="s">
+        <v>45</v>
+      </c>
+      <c r="B330" t="s">
+        <v>37</v>
+      </c>
+      <c r="C330" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D330" t="s">
+        <v>2</v>
+      </c>
+      <c r="E330" t="s">
+        <v>38</v>
+      </c>
+      <c r="F330">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A331" t="s">
+        <v>45</v>
+      </c>
+      <c r="B331" t="s">
+        <v>37</v>
+      </c>
+      <c r="C331" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D331" t="s">
+        <v>2</v>
+      </c>
+      <c r="E331" t="s">
+        <v>39</v>
+      </c>
+      <c r="F331">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A332" t="s">
+        <v>45</v>
+      </c>
+      <c r="B332" t="s">
+        <v>37</v>
+      </c>
+      <c r="C332" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D332" t="s">
+        <v>2</v>
+      </c>
+      <c r="E332" t="s">
+        <v>60</v>
+      </c>
+      <c r="F332">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>45</v>
+      </c>
+      <c r="B333" t="s">
+        <v>37</v>
+      </c>
+      <c r="C333" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D333" t="s">
+        <v>3</v>
+      </c>
+      <c r="E333" t="s">
+        <v>38</v>
+      </c>
+      <c r="F333">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A334" t="s">
+        <v>45</v>
+      </c>
+      <c r="B334" t="s">
+        <v>37</v>
+      </c>
+      <c r="C334" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D334" t="s">
+        <v>3</v>
+      </c>
+      <c r="E334" t="s">
+        <v>39</v>
+      </c>
+      <c r="F334">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A335" t="s">
+        <v>45</v>
+      </c>
+      <c r="B335" t="s">
+        <v>37</v>
+      </c>
+      <c r="C335" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D335" t="s">
+        <v>3</v>
+      </c>
+      <c r="E335" t="s">
+        <v>60</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A336" t="s">
+        <v>45</v>
+      </c>
+      <c r="B336" t="s">
+        <v>37</v>
+      </c>
+      <c r="C336" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D336" t="s">
+        <v>46</v>
+      </c>
+      <c r="E336" t="s">
+        <v>38</v>
+      </c>
+      <c r="F336">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A337" t="s">
+        <v>45</v>
+      </c>
+      <c r="B337" t="s">
+        <v>37</v>
+      </c>
+      <c r="C337" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D337" t="s">
+        <v>46</v>
+      </c>
+      <c r="E337" t="s">
+        <v>39</v>
+      </c>
+      <c r="F337">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A338" t="s">
+        <v>45</v>
+      </c>
+      <c r="B338" t="s">
+        <v>37</v>
+      </c>
+      <c r="C338" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D338" t="s">
+        <v>46</v>
+      </c>
+      <c r="E338" t="s">
+        <v>60</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A339" t="s">
+        <v>45</v>
+      </c>
+      <c r="B339" t="s">
+        <v>37</v>
+      </c>
+      <c r="C339" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D339" t="s">
+        <v>4</v>
+      </c>
+      <c r="E339" t="s">
+        <v>38</v>
+      </c>
+      <c r="F339">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A340" t="s">
+        <v>45</v>
+      </c>
+      <c r="B340" t="s">
+        <v>37</v>
+      </c>
+      <c r="C340" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D340" t="s">
+        <v>4</v>
+      </c>
+      <c r="E340" t="s">
+        <v>39</v>
+      </c>
+      <c r="F340">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A341" t="s">
+        <v>45</v>
+      </c>
+      <c r="B341" t="s">
+        <v>37</v>
+      </c>
+      <c r="C341" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D341" t="s">
+        <v>4</v>
+      </c>
+      <c r="E341" t="s">
+        <v>60</v>
+      </c>
+      <c r="F341">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A342" t="s">
+        <v>45</v>
+      </c>
+      <c r="B342" t="s">
+        <v>37</v>
+      </c>
+      <c r="C342" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D342" t="s">
+        <v>5</v>
+      </c>
+      <c r="E342" t="s">
+        <v>38</v>
+      </c>
+      <c r="F342">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A343" t="s">
+        <v>45</v>
+      </c>
+      <c r="B343" t="s">
+        <v>37</v>
+      </c>
+      <c r="C343" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D343" t="s">
+        <v>5</v>
+      </c>
+      <c r="E343" t="s">
+        <v>39</v>
+      </c>
+      <c r="F343">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A344" t="s">
+        <v>45</v>
+      </c>
+      <c r="B344" t="s">
+        <v>37</v>
+      </c>
+      <c r="C344" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D344" t="s">
+        <v>5</v>
+      </c>
+      <c r="E344" t="s">
+        <v>60</v>
+      </c>
+      <c r="F344">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A345" t="s">
+        <v>45</v>
+      </c>
+      <c r="B345" t="s">
+        <v>37</v>
+      </c>
+      <c r="C345" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D345" t="s">
+        <v>6</v>
+      </c>
+      <c r="E345" t="s">
+        <v>38</v>
+      </c>
+      <c r="F345">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A346" t="s">
+        <v>45</v>
+      </c>
+      <c r="B346" t="s">
+        <v>37</v>
+      </c>
+      <c r="C346" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D346" t="s">
+        <v>6</v>
+      </c>
+      <c r="E346" t="s">
+        <v>39</v>
+      </c>
+      <c r="F346">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A347" t="s">
+        <v>45</v>
+      </c>
+      <c r="B347" t="s">
+        <v>37</v>
+      </c>
+      <c r="C347" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D347" t="s">
+        <v>6</v>
+      </c>
+      <c r="E347" t="s">
+        <v>60</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A348" t="s">
+        <v>45</v>
+      </c>
+      <c r="B348" t="s">
+        <v>37</v>
+      </c>
+      <c r="C348" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D348" t="s">
+        <v>7</v>
+      </c>
+      <c r="E348" t="s">
+        <v>38</v>
+      </c>
+      <c r="F348">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A349" t="s">
+        <v>45</v>
+      </c>
+      <c r="B349" t="s">
+        <v>37</v>
+      </c>
+      <c r="C349" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D349" t="s">
+        <v>7</v>
+      </c>
+      <c r="E349" t="s">
+        <v>39</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A350" t="s">
+        <v>45</v>
+      </c>
+      <c r="B350" t="s">
+        <v>37</v>
+      </c>
+      <c r="C350" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D350" t="s">
+        <v>7</v>
+      </c>
+      <c r="E350" t="s">
+        <v>60</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" t="s">
+        <v>45</v>
+      </c>
+      <c r="B351" t="s">
+        <v>37</v>
+      </c>
+      <c r="C351" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D351" t="s">
+        <v>8</v>
+      </c>
+      <c r="E351" t="s">
+        <v>38</v>
+      </c>
+      <c r="F351">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" t="s">
+        <v>45</v>
+      </c>
+      <c r="B352" t="s">
+        <v>37</v>
+      </c>
+      <c r="C352" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D352" t="s">
+        <v>8</v>
+      </c>
+      <c r="E352" t="s">
+        <v>39</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" t="s">
+        <v>45</v>
+      </c>
+      <c r="B353" t="s">
+        <v>37</v>
+      </c>
+      <c r="C353" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D353" t="s">
+        <v>8</v>
+      </c>
+      <c r="E353" t="s">
+        <v>60</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" t="s">
+        <v>45</v>
+      </c>
+      <c r="B354" t="s">
+        <v>37</v>
+      </c>
+      <c r="C354" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D354" t="s">
+        <v>9</v>
+      </c>
+      <c r="E354" t="s">
+        <v>38</v>
+      </c>
+      <c r="F354">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" t="s">
+        <v>45</v>
+      </c>
+      <c r="B355" t="s">
+        <v>37</v>
+      </c>
+      <c r="C355" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D355" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355" t="s">
+        <v>39</v>
+      </c>
+      <c r="F355">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" t="s">
+        <v>45</v>
+      </c>
+      <c r="B356" t="s">
+        <v>37</v>
+      </c>
+      <c r="C356" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D356" t="s">
+        <v>9</v>
+      </c>
+      <c r="E356" t="s">
+        <v>60</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A357" t="s">
+        <v>45</v>
+      </c>
+      <c r="B357" t="s">
+        <v>37</v>
+      </c>
+      <c r="C357" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D357" t="s">
+        <v>40</v>
+      </c>
+      <c r="E357" t="s">
+        <v>38</v>
+      </c>
+      <c r="F357">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A358" t="s">
+        <v>45</v>
+      </c>
+      <c r="B358" t="s">
+        <v>37</v>
+      </c>
+      <c r="C358" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D358" t="s">
+        <v>40</v>
+      </c>
+      <c r="E358" t="s">
+        <v>39</v>
+      </c>
+      <c r="F358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A359" t="s">
+        <v>45</v>
+      </c>
+      <c r="B359" t="s">
+        <v>37</v>
+      </c>
+      <c r="C359" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D359" t="s">
+        <v>40</v>
+      </c>
+      <c r="E359" t="s">
+        <v>60</v>
+      </c>
+      <c r="F359">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A360" t="s">
+        <v>45</v>
+      </c>
+      <c r="B360" t="s">
+        <v>37</v>
+      </c>
+      <c r="C360" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D360" t="s">
+        <v>67</v>
+      </c>
+      <c r="E360" t="s">
+        <v>38</v>
+      </c>
+      <c r="F360">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A361" t="s">
+        <v>45</v>
+      </c>
+      <c r="B361" t="s">
+        <v>37</v>
+      </c>
+      <c r="C361" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D361" t="s">
+        <v>67</v>
+      </c>
+      <c r="E361" t="s">
+        <v>39</v>
+      </c>
+      <c r="F361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A362" t="s">
+        <v>45</v>
+      </c>
+      <c r="B362" t="s">
+        <v>37</v>
+      </c>
+      <c r="C362" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D362" t="s">
+        <v>67</v>
+      </c>
+      <c r="E362" t="s">
+        <v>60</v>
+      </c>
+      <c r="F362">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A363" t="s">
+        <v>45</v>
+      </c>
+      <c r="B363" t="s">
+        <v>37</v>
+      </c>
+      <c r="C363" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D363" t="s">
+        <v>68</v>
+      </c>
+      <c r="E363" t="s">
+        <v>38</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A364" t="s">
+        <v>45</v>
+      </c>
+      <c r="B364" t="s">
+        <v>37</v>
+      </c>
+      <c r="C364" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D364" t="s">
+        <v>68</v>
+      </c>
+      <c r="E364" t="s">
+        <v>39</v>
+      </c>
+      <c r="F364">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A365" t="s">
+        <v>45</v>
+      </c>
+      <c r="B365" t="s">
+        <v>37</v>
+      </c>
+      <c r="C365" s="1">
+        <v>43914.75</v>
+      </c>
+      <c r="D365" t="s">
+        <v>68</v>
+      </c>
+      <c r="E365" t="s">
+        <v>60</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/canada_covid.xlsx
+++ b/canada_covid.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -586,11 +586,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP32"/>
+  <dimension ref="A1:AP33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2161,6 +2161,134 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>37</v>
+      </c>
+      <c r="C33" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D33">
+        <v>659</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>14</v>
+      </c>
+      <c r="G33">
+        <v>419</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>2</v>
+      </c>
+      <c r="J33">
+        <v>86</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>11</v>
+      </c>
+      <c r="N33">
+        <v>24</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>858</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>13</v>
+      </c>
+      <c r="S33">
+        <v>1339</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>6</v>
+      </c>
+      <c r="V33">
+        <v>67</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>26</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>68</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>5</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>13</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+      <c r="AJ33">
+        <v>0</v>
+      </c>
+      <c r="AK33">
+        <v>3</v>
+      </c>
+      <c r="AL33">
+        <v>0</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2168,10 +2296,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:F404"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="A327" sqref="A327:C365"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="C366" sqref="C366:C404"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9481,6 +9609,786 @@
         <v>0</v>
       </c>
     </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A366" t="s">
+        <v>45</v>
+      </c>
+      <c r="B366" t="s">
+        <v>37</v>
+      </c>
+      <c r="C366" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D366" t="s">
+        <v>1</v>
+      </c>
+      <c r="E366" t="s">
+        <v>38</v>
+      </c>
+      <c r="F366">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A367" t="s">
+        <v>45</v>
+      </c>
+      <c r="B367" t="s">
+        <v>37</v>
+      </c>
+      <c r="C367" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D367" t="s">
+        <v>1</v>
+      </c>
+      <c r="E367" t="s">
+        <v>39</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A368" t="s">
+        <v>45</v>
+      </c>
+      <c r="B368" t="s">
+        <v>37</v>
+      </c>
+      <c r="C368" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D368" t="s">
+        <v>1</v>
+      </c>
+      <c r="E368" t="s">
+        <v>60</v>
+      </c>
+      <c r="F368">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A369" t="s">
+        <v>45</v>
+      </c>
+      <c r="B369" t="s">
+        <v>37</v>
+      </c>
+      <c r="C369" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D369" t="s">
+        <v>2</v>
+      </c>
+      <c r="E369" t="s">
+        <v>38</v>
+      </c>
+      <c r="F369">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A370" t="s">
+        <v>45</v>
+      </c>
+      <c r="B370" t="s">
+        <v>37</v>
+      </c>
+      <c r="C370" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D370" t="s">
+        <v>2</v>
+      </c>
+      <c r="E370" t="s">
+        <v>39</v>
+      </c>
+      <c r="F370">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A371" t="s">
+        <v>45</v>
+      </c>
+      <c r="B371" t="s">
+        <v>37</v>
+      </c>
+      <c r="C371" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D371" t="s">
+        <v>2</v>
+      </c>
+      <c r="E371" t="s">
+        <v>60</v>
+      </c>
+      <c r="F371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A372" t="s">
+        <v>45</v>
+      </c>
+      <c r="B372" t="s">
+        <v>37</v>
+      </c>
+      <c r="C372" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D372" t="s">
+        <v>3</v>
+      </c>
+      <c r="E372" t="s">
+        <v>38</v>
+      </c>
+      <c r="F372">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A373" t="s">
+        <v>45</v>
+      </c>
+      <c r="B373" t="s">
+        <v>37</v>
+      </c>
+      <c r="C373" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D373" t="s">
+        <v>3</v>
+      </c>
+      <c r="E373" t="s">
+        <v>39</v>
+      </c>
+      <c r="F373">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A374" t="s">
+        <v>45</v>
+      </c>
+      <c r="B374" t="s">
+        <v>37</v>
+      </c>
+      <c r="C374" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D374" t="s">
+        <v>3</v>
+      </c>
+      <c r="E374" t="s">
+        <v>60</v>
+      </c>
+      <c r="F374">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A375" t="s">
+        <v>45</v>
+      </c>
+      <c r="B375" t="s">
+        <v>37</v>
+      </c>
+      <c r="C375" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D375" t="s">
+        <v>46</v>
+      </c>
+      <c r="E375" t="s">
+        <v>38</v>
+      </c>
+      <c r="F375">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A376" t="s">
+        <v>45</v>
+      </c>
+      <c r="B376" t="s">
+        <v>37</v>
+      </c>
+      <c r="C376" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D376" t="s">
+        <v>46</v>
+      </c>
+      <c r="E376" t="s">
+        <v>39</v>
+      </c>
+      <c r="F376">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A377" t="s">
+        <v>45</v>
+      </c>
+      <c r="B377" t="s">
+        <v>37</v>
+      </c>
+      <c r="C377" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D377" t="s">
+        <v>46</v>
+      </c>
+      <c r="E377" t="s">
+        <v>60</v>
+      </c>
+      <c r="F377">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A378" t="s">
+        <v>45</v>
+      </c>
+      <c r="B378" t="s">
+        <v>37</v>
+      </c>
+      <c r="C378" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D378" t="s">
+        <v>4</v>
+      </c>
+      <c r="E378" t="s">
+        <v>38</v>
+      </c>
+      <c r="F378">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A379" t="s">
+        <v>45</v>
+      </c>
+      <c r="B379" t="s">
+        <v>37</v>
+      </c>
+      <c r="C379" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D379" t="s">
+        <v>4</v>
+      </c>
+      <c r="E379" t="s">
+        <v>39</v>
+      </c>
+      <c r="F379">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A380" t="s">
+        <v>45</v>
+      </c>
+      <c r="B380" t="s">
+        <v>37</v>
+      </c>
+      <c r="C380" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D380" t="s">
+        <v>4</v>
+      </c>
+      <c r="E380" t="s">
+        <v>60</v>
+      </c>
+      <c r="F380">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A381" t="s">
+        <v>45</v>
+      </c>
+      <c r="B381" t="s">
+        <v>37</v>
+      </c>
+      <c r="C381" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D381" t="s">
+        <v>5</v>
+      </c>
+      <c r="E381" t="s">
+        <v>38</v>
+      </c>
+      <c r="F381">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A382" t="s">
+        <v>45</v>
+      </c>
+      <c r="B382" t="s">
+        <v>37</v>
+      </c>
+      <c r="C382" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D382" t="s">
+        <v>5</v>
+      </c>
+      <c r="E382" t="s">
+        <v>39</v>
+      </c>
+      <c r="F382">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A383" t="s">
+        <v>45</v>
+      </c>
+      <c r="B383" t="s">
+        <v>37</v>
+      </c>
+      <c r="C383" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D383" t="s">
+        <v>5</v>
+      </c>
+      <c r="E383" t="s">
+        <v>60</v>
+      </c>
+      <c r="F383">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A384" t="s">
+        <v>45</v>
+      </c>
+      <c r="B384" t="s">
+        <v>37</v>
+      </c>
+      <c r="C384" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D384" t="s">
+        <v>6</v>
+      </c>
+      <c r="E384" t="s">
+        <v>38</v>
+      </c>
+      <c r="F384">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A385" t="s">
+        <v>45</v>
+      </c>
+      <c r="B385" t="s">
+        <v>37</v>
+      </c>
+      <c r="C385" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D385" t="s">
+        <v>6</v>
+      </c>
+      <c r="E385" t="s">
+        <v>39</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A386" t="s">
+        <v>45</v>
+      </c>
+      <c r="B386" t="s">
+        <v>37</v>
+      </c>
+      <c r="C386" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D386" t="s">
+        <v>6</v>
+      </c>
+      <c r="E386" t="s">
+        <v>60</v>
+      </c>
+      <c r="F386">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A387" t="s">
+        <v>45</v>
+      </c>
+      <c r="B387" t="s">
+        <v>37</v>
+      </c>
+      <c r="C387" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D387" t="s">
+        <v>7</v>
+      </c>
+      <c r="E387" t="s">
+        <v>38</v>
+      </c>
+      <c r="F387">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A388" t="s">
+        <v>45</v>
+      </c>
+      <c r="B388" t="s">
+        <v>37</v>
+      </c>
+      <c r="C388" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D388" t="s">
+        <v>7</v>
+      </c>
+      <c r="E388" t="s">
+        <v>39</v>
+      </c>
+      <c r="F388">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A389" t="s">
+        <v>45</v>
+      </c>
+      <c r="B389" t="s">
+        <v>37</v>
+      </c>
+      <c r="C389" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D389" t="s">
+        <v>7</v>
+      </c>
+      <c r="E389" t="s">
+        <v>60</v>
+      </c>
+      <c r="F389">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A390" t="s">
+        <v>45</v>
+      </c>
+      <c r="B390" t="s">
+        <v>37</v>
+      </c>
+      <c r="C390" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D390" t="s">
+        <v>8</v>
+      </c>
+      <c r="E390" t="s">
+        <v>38</v>
+      </c>
+      <c r="F390">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A391" t="s">
+        <v>45</v>
+      </c>
+      <c r="B391" t="s">
+        <v>37</v>
+      </c>
+      <c r="C391" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D391" t="s">
+        <v>8</v>
+      </c>
+      <c r="E391" t="s">
+        <v>39</v>
+      </c>
+      <c r="F391">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A392" t="s">
+        <v>45</v>
+      </c>
+      <c r="B392" t="s">
+        <v>37</v>
+      </c>
+      <c r="C392" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D392" t="s">
+        <v>8</v>
+      </c>
+      <c r="E392" t="s">
+        <v>60</v>
+      </c>
+      <c r="F392">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A393" t="s">
+        <v>45</v>
+      </c>
+      <c r="B393" t="s">
+        <v>37</v>
+      </c>
+      <c r="C393" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D393" t="s">
+        <v>9</v>
+      </c>
+      <c r="E393" t="s">
+        <v>38</v>
+      </c>
+      <c r="F393">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A394" t="s">
+        <v>45</v>
+      </c>
+      <c r="B394" t="s">
+        <v>37</v>
+      </c>
+      <c r="C394" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D394" t="s">
+        <v>9</v>
+      </c>
+      <c r="E394" t="s">
+        <v>39</v>
+      </c>
+      <c r="F394">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A395" t="s">
+        <v>45</v>
+      </c>
+      <c r="B395" t="s">
+        <v>37</v>
+      </c>
+      <c r="C395" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D395" t="s">
+        <v>9</v>
+      </c>
+      <c r="E395" t="s">
+        <v>60</v>
+      </c>
+      <c r="F395">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A396" t="s">
+        <v>45</v>
+      </c>
+      <c r="B396" t="s">
+        <v>37</v>
+      </c>
+      <c r="C396" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D396" t="s">
+        <v>40</v>
+      </c>
+      <c r="E396" t="s">
+        <v>38</v>
+      </c>
+      <c r="F396">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A397" t="s">
+        <v>45</v>
+      </c>
+      <c r="B397" t="s">
+        <v>37</v>
+      </c>
+      <c r="C397" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D397" t="s">
+        <v>40</v>
+      </c>
+      <c r="E397" t="s">
+        <v>39</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A398" t="s">
+        <v>45</v>
+      </c>
+      <c r="B398" t="s">
+        <v>37</v>
+      </c>
+      <c r="C398" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D398" t="s">
+        <v>40</v>
+      </c>
+      <c r="E398" t="s">
+        <v>60</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A399" t="s">
+        <v>45</v>
+      </c>
+      <c r="B399" t="s">
+        <v>37</v>
+      </c>
+      <c r="C399" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D399" t="s">
+        <v>67</v>
+      </c>
+      <c r="E399" t="s">
+        <v>38</v>
+      </c>
+      <c r="F399">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A400" t="s">
+        <v>45</v>
+      </c>
+      <c r="B400" t="s">
+        <v>37</v>
+      </c>
+      <c r="C400" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D400" t="s">
+        <v>67</v>
+      </c>
+      <c r="E400" t="s">
+        <v>39</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A401" t="s">
+        <v>45</v>
+      </c>
+      <c r="B401" t="s">
+        <v>37</v>
+      </c>
+      <c r="C401" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D401" t="s">
+        <v>67</v>
+      </c>
+      <c r="E401" t="s">
+        <v>60</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A402" t="s">
+        <v>45</v>
+      </c>
+      <c r="B402" t="s">
+        <v>37</v>
+      </c>
+      <c r="C402" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D402" t="s">
+        <v>68</v>
+      </c>
+      <c r="E402" t="s">
+        <v>38</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A403" t="s">
+        <v>45</v>
+      </c>
+      <c r="B403" t="s">
+        <v>37</v>
+      </c>
+      <c r="C403" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D403" t="s">
+        <v>68</v>
+      </c>
+      <c r="E403" t="s">
+        <v>39</v>
+      </c>
+      <c r="F403">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A404" t="s">
+        <v>45</v>
+      </c>
+      <c r="B404" t="s">
+        <v>37</v>
+      </c>
+      <c r="C404" s="1">
+        <v>43916.458333333336</v>
+      </c>
+      <c r="D404" t="s">
+        <v>68</v>
+      </c>
+      <c r="E404" t="s">
+        <v>60</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
